--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="REMISIONES FEBRERO   2022  " sheetId="11" r:id="rId5"/>
     <sheet name="REMISIONES  MARZO   2022    " sheetId="12" r:id="rId6"/>
     <sheet name="REMISIONES   ABRIL  2 0 2 2    " sheetId="13" r:id="rId7"/>
-    <sheet name="Hoja4" sheetId="14" r:id="rId8"/>
+    <sheet name="REMISIONES  MAYO   2022   " sheetId="14" r:id="rId8"/>
     <sheet name="Hoja3" sheetId="15" r:id="rId9"/>
     <sheet name="DEPOSITOS   ODELPA   Y  NORMA L" sheetId="8" r:id="rId10"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId11"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="49">
   <si>
     <t>REMISION</t>
   </si>
@@ -274,63 +274,6 @@
     <t>taras 18-Abr-22</t>
   </si>
   <si>
-    <t>13246 C</t>
-  </si>
-  <si>
-    <t>13425 C</t>
-  </si>
-  <si>
-    <t>13429 C</t>
-  </si>
-  <si>
-    <t>13460 C</t>
-  </si>
-  <si>
-    <t>13541 C</t>
-  </si>
-  <si>
-    <t>13652 C</t>
-  </si>
-  <si>
-    <t>13809 C</t>
-  </si>
-  <si>
-    <t>13913 C</t>
-  </si>
-  <si>
-    <t>14009 C</t>
-  </si>
-  <si>
-    <t>14039 C</t>
-  </si>
-  <si>
-    <t>14105 C</t>
-  </si>
-  <si>
-    <t>14255 C</t>
-  </si>
-  <si>
-    <t>14326 C</t>
-  </si>
-  <si>
-    <t>14455 C</t>
-  </si>
-  <si>
-    <t>14471 C</t>
-  </si>
-  <si>
-    <t>14550 C</t>
-  </si>
-  <si>
-    <t>14611 C</t>
-  </si>
-  <si>
-    <t>14681 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABASTOS DE 4 CANRES  HERRADURA </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">DEPOSITOS  ZAVALETA   A     </t>
     </r>
@@ -355,6 +298,12 @@
   <si>
     <t>ODELPA</t>
   </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   MAYO         2 0 2 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROSUBCA </t>
+  </si>
 </sst>
 </file>
 
@@ -366,7 +315,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,59 +485,22 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="16"/>
+      <color rgb="FF990033"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF990033"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,14 +579,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -881,30 +787,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -966,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,55 +1137,25 @@
     <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="21" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="14" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="25" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,9 +1165,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1391,12 +1247,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF990033"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCC0099"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF9900"/>
     </mruColors>
@@ -1494,6 +1350,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="6196017"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="8329615"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="8377242"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2195,6 +2162,117 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="14387515"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="14435142"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
@@ -2271,117 +2349,6 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="27970167"/>
-          <a:ext cx="638173" cy="495298"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4576765" y="8329615"/>
-          <a:ext cx="581022" cy="590546"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>123829</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5472114" y="8377242"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2698,24 +2665,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="174"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="160"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -3861,12 +3828,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="168">
+      <c r="D55" s="154">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="169"/>
-      <c r="F55" s="170"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="156"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3880,11 +3847,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="171" t="s">
+      <c r="D57" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3995,60 +3962,60 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="123"/>
-    <col min="3" max="3" width="14.85546875" style="165" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="149" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="124" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="123" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.42578125" style="123"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="178"/>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
+      <c r="A1" s="164"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="180" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
+      <c r="A2" s="166" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
     </row>
     <row r="3" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="158" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="161" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="166" t="s">
+      <c r="B3" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="160" t="s">
-        <v>65</v>
+      <c r="E3" s="144" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="156">
+      <c r="B4" s="140">
         <v>44690</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="146">
         <v>44693</v>
       </c>
-      <c r="D4" s="157">
+      <c r="D4" s="141">
         <v>67500</v>
       </c>
-      <c r="E4" s="157">
+      <c r="E4" s="141">
         <f>D4</f>
         <v>67500</v>
       </c>
@@ -4057,7 +4024,7 @@
       <c r="B5" s="89">
         <v>44691</v>
       </c>
-      <c r="C5" s="163">
+      <c r="C5" s="147">
         <v>44693</v>
       </c>
       <c r="D5" s="20">
@@ -4072,7 +4039,7 @@
       <c r="B6" s="89">
         <v>44692</v>
       </c>
-      <c r="C6" s="163">
+      <c r="C6" s="147">
         <v>44693</v>
       </c>
       <c r="D6" s="20">
@@ -4087,7 +4054,7 @@
       <c r="B7" s="89">
         <v>44693</v>
       </c>
-      <c r="C7" s="163">
+      <c r="C7" s="147">
         <v>44697</v>
       </c>
       <c r="D7" s="20">
@@ -4102,7 +4069,7 @@
       <c r="B8" s="89">
         <v>44694</v>
       </c>
-      <c r="C8" s="163">
+      <c r="C8" s="147">
         <v>44697</v>
       </c>
       <c r="D8" s="20">
@@ -4117,7 +4084,7 @@
       <c r="B9" s="89">
         <v>44695</v>
       </c>
-      <c r="C9" s="163">
+      <c r="C9" s="147">
         <v>44697</v>
       </c>
       <c r="D9" s="20">
@@ -4132,7 +4099,7 @@
       <c r="B10" s="89">
         <v>44696</v>
       </c>
-      <c r="C10" s="163">
+      <c r="C10" s="147">
         <v>44697</v>
       </c>
       <c r="D10" s="20">
@@ -4145,7 +4112,7 @@
     </row>
     <row r="11" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="89"/>
-      <c r="C11" s="163"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
@@ -4154,7 +4121,7 @@
     </row>
     <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="89"/>
-      <c r="C12" s="163"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
@@ -4163,7 +4130,7 @@
     </row>
     <row r="13" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="89"/>
-      <c r="C13" s="163"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="22"/>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
@@ -4172,7 +4139,7 @@
     </row>
     <row r="14" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="89"/>
-      <c r="C14" s="163"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
@@ -4181,7 +4148,7 @@
     </row>
     <row r="15" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="89"/>
-      <c r="C15" s="163"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
@@ -4190,7 +4157,7 @@
     </row>
     <row r="16" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="89"/>
-      <c r="C16" s="163"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
@@ -4199,7 +4166,7 @@
     </row>
     <row r="17" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="89"/>
-      <c r="C17" s="163"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
@@ -4208,7 +4175,7 @@
     </row>
     <row r="18" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="89"/>
-      <c r="C18" s="163"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
@@ -4217,287 +4184,287 @@
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="30"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="130"/>
       <c r="B20" s="110"/>
-      <c r="C20" s="164"/>
+      <c r="C20" s="148"/>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="130"/>
       <c r="B21" s="110"/>
-      <c r="C21" s="164"/>
+      <c r="C21" s="148"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="130"/>
       <c r="B22" s="110"/>
-      <c r="C22" s="164"/>
+      <c r="C22" s="148"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="130"/>
       <c r="B23" s="110"/>
-      <c r="C23" s="164"/>
+      <c r="C23" s="148"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="130"/>
       <c r="B24" s="110"/>
-      <c r="C24" s="164"/>
+      <c r="C24" s="148"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="130"/>
       <c r="B25" s="110"/>
-      <c r="C25" s="164"/>
+      <c r="C25" s="148"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="130"/>
       <c r="B26" s="110"/>
-      <c r="C26" s="164"/>
+      <c r="C26" s="148"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="130"/>
       <c r="B27" s="110"/>
-      <c r="C27" s="164"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="130"/>
       <c r="B28" s="110"/>
-      <c r="C28" s="164"/>
+      <c r="C28" s="148"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="130"/>
       <c r="B29" s="110"/>
-      <c r="C29" s="164"/>
+      <c r="C29" s="148"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="130"/>
       <c r="B30" s="110"/>
-      <c r="C30" s="164"/>
+      <c r="C30" s="148"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="130"/>
       <c r="B31" s="110"/>
-      <c r="C31" s="164"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="130"/>
       <c r="B32" s="110"/>
-      <c r="C32" s="164"/>
+      <c r="C32" s="148"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="130"/>
       <c r="B33" s="110"/>
-      <c r="C33" s="164"/>
+      <c r="C33" s="148"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="130"/>
       <c r="B34" s="110"/>
-      <c r="C34" s="164"/>
+      <c r="C34" s="148"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="130"/>
       <c r="B35" s="110"/>
-      <c r="C35" s="164"/>
+      <c r="C35" s="148"/>
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="130"/>
       <c r="B36" s="110"/>
-      <c r="C36" s="164"/>
+      <c r="C36" s="148"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="130"/>
       <c r="B37" s="110"/>
-      <c r="C37" s="164"/>
+      <c r="C37" s="148"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="130"/>
       <c r="B38" s="110"/>
-      <c r="C38" s="164"/>
+      <c r="C38" s="148"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="130"/>
       <c r="B39" s="110"/>
-      <c r="C39" s="164"/>
+      <c r="C39" s="148"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="130"/>
       <c r="B40" s="110"/>
-      <c r="C40" s="164"/>
+      <c r="C40" s="148"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="130"/>
       <c r="B41" s="110"/>
-      <c r="C41" s="164"/>
+      <c r="C41" s="148"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="130"/>
       <c r="B42" s="110"/>
-      <c r="C42" s="164"/>
+      <c r="C42" s="148"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="130"/>
       <c r="B43" s="110"/>
-      <c r="C43" s="164"/>
+      <c r="C43" s="148"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="130"/>
       <c r="B44" s="110"/>
-      <c r="C44" s="164"/>
+      <c r="C44" s="148"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="130"/>
       <c r="B45" s="110"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="159"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="143"/>
       <c r="E45" s="60"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="130"/>
       <c r="B46" s="110"/>
-      <c r="C46" s="164"/>
+      <c r="C46" s="148"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="130"/>
       <c r="B47" s="110"/>
-      <c r="C47" s="164"/>
+      <c r="C47" s="148"/>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="130"/>
       <c r="B48" s="110"/>
-      <c r="C48" s="164"/>
+      <c r="C48" s="148"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="130"/>
       <c r="B49" s="110"/>
-      <c r="C49" s="164"/>
+      <c r="C49" s="148"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="130"/>
       <c r="B50" s="110"/>
-      <c r="C50" s="164"/>
+      <c r="C50" s="148"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="130"/>
       <c r="B51" s="110"/>
-      <c r="C51" s="164"/>
+      <c r="C51" s="148"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="130"/>
       <c r="B52" s="110"/>
-      <c r="C52" s="164"/>
+      <c r="C52" s="148"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="130"/>
       <c r="B53" s="110"/>
-      <c r="C53" s="164"/>
+      <c r="C53" s="148"/>
       <c r="D53" s="62"/>
       <c r="E53" s="60"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="130"/>
       <c r="B54" s="110"/>
-      <c r="C54" s="164"/>
+      <c r="C54" s="148"/>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="130"/>
       <c r="B55" s="110"/>
-      <c r="C55" s="164"/>
+      <c r="C55" s="148"/>
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="130"/>
       <c r="B56" s="110"/>
-      <c r="C56" s="164"/>
+      <c r="C56" s="148"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="130"/>
       <c r="B57" s="110"/>
-      <c r="C57" s="164"/>
+      <c r="C57" s="148"/>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="130"/>
       <c r="B58" s="110"/>
-      <c r="C58" s="164"/>
+      <c r="C58" s="148"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="130"/>
       <c r="B59" s="110"/>
-      <c r="C59" s="164"/>
+      <c r="C59" s="148"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
     </row>
@@ -4507,7 +4474,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D61" s="131"/>
-      <c r="E61" s="155"/>
+      <c r="E61" s="139"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D62" s="131"/>
@@ -4549,27 +4516,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -4764,11 +4731,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="185">
+      <c r="G11" s="171">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="186"/>
+      <c r="H11" s="172"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -6143,11 +6110,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="187">
+      <c r="G81" s="173">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="188"/>
+      <c r="H81" s="174"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -6235,12 +6202,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="168">
+      <c r="E88" s="154">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="169"/>
-      <c r="G88" s="170"/>
+      <c r="F88" s="155"/>
+      <c r="G88" s="156"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -6257,11 +6224,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="171" t="s">
+      <c r="E90" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="171"/>
-      <c r="G90" s="171"/>
+      <c r="F90" s="157"/>
+      <c r="G90" s="157"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6406,25 +6373,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="160"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7316,12 +7283,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="168">
+      <c r="E52" s="154">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="169"/>
-      <c r="G52" s="170"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="156"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -7337,11 +7304,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="171" t="s">
+      <c r="E54" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="171"/>
-      <c r="G54" s="171"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -7497,25 +7464,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="160"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9245,12 +9212,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="168">
+      <c r="E76" s="154">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="169"/>
-      <c r="G76" s="170"/>
+      <c r="F76" s="155"/>
+      <c r="G76" s="156"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9266,11 +9233,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="171" t="s">
+      <c r="E78" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="171"/>
-      <c r="G78" s="171"/>
+      <c r="F78" s="157"/>
+      <c r="G78" s="157"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -9411,25 +9378,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="160"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10278,12 +10245,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="168">
+      <c r="E41" s="154">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="169"/>
-      <c r="G41" s="170"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="156"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10299,11 +10266,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="171" t="s">
+      <c r="E43" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10447,25 +10414,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="177"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="163"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11805,12 +11772,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="168">
+      <c r="E60" s="154">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="169"/>
-      <c r="G60" s="170"/>
+      <c r="F60" s="155"/>
+      <c r="G60" s="156"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -11826,11 +11793,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="171" t="s">
+      <c r="E62" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="171"/>
-      <c r="G62" s="171"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -11971,25 +11938,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="177"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="163"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13390,12 +13357,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="168">
+      <c r="E61" s="154">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="169"/>
-      <c r="G61" s="170"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="156"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -13411,11 +13378,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="171" t="s">
+      <c r="E63" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="171"/>
-      <c r="G63" s="171"/>
+      <c r="F63" s="157"/>
+      <c r="G63" s="157"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -13556,25 +13523,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="177"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="163"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15024,12 +14991,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="168">
+      <c r="E64" s="154">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="169"/>
-      <c r="G64" s="170"/>
+      <c r="F64" s="155"/>
+      <c r="G64" s="156"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15045,11 +15012,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="171" t="s">
+      <c r="E66" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="171"/>
-      <c r="G66" s="171"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="157"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15172,8 +15139,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15190,25 +15157,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="177"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="163"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16059,8 +16026,8 @@
       <c r="E37" s="20">
         <v>7615</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
         <v>7615</v>
@@ -16080,8 +16047,8 @@
       <c r="E38" s="20">
         <v>5791</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
         <v>5791</v>
@@ -16101,8 +16068,8 @@
       <c r="E39" s="20">
         <v>10777</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
         <v>10777</v>
@@ -16147,8 +16114,8 @@
       <c r="E41" s="20">
         <v>4970</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
         <v>4970</v>
@@ -16168,8 +16135,8 @@
       <c r="E42" s="20">
         <v>7957</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
         <v>7957</v>
@@ -16189,8 +16156,8 @@
       <c r="E43" s="20">
         <v>45974</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="94"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
         <v>45974</v>
@@ -16210,8 +16177,8 @@
       <c r="E44" s="20">
         <v>2351</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
         <v>2351</v>
@@ -16231,8 +16198,8 @@
       <c r="E45" s="20">
         <v>14835</v>
       </c>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="94"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
         <v>14835</v>
@@ -16252,8 +16219,8 @@
       <c r="E46" s="20">
         <v>22221</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="94"/>
       <c r="H46" s="18">
         <f t="shared" si="0"/>
         <v>22221</v>
@@ -16273,8 +16240,8 @@
       <c r="E47" s="20">
         <v>8065</v>
       </c>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="94"/>
       <c r="H47" s="18">
         <f t="shared" si="0"/>
         <v>8065</v>
@@ -16294,8 +16261,8 @@
       <c r="E48" s="20">
         <v>7600</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="94"/>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
         <v>7600</v>
@@ -16315,11 +16282,15 @@
       <c r="E49" s="20">
         <v>1446</v>
       </c>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
+      <c r="F49" s="93">
+        <v>44685</v>
+      </c>
+      <c r="G49" s="94">
+        <v>1446</v>
+      </c>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>1446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16336,8 +16307,8 @@
       <c r="E50" s="20">
         <v>1954</v>
       </c>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="94"/>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
         <v>1954</v>
@@ -16357,8 +16328,8 @@
       <c r="E51" s="20">
         <v>0</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16378,8 +16349,8 @@
       <c r="E52" s="20">
         <v>43123</v>
       </c>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
         <v>43123</v>
@@ -16399,8 +16370,8 @@
       <c r="E53" s="20">
         <v>0</v>
       </c>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="94"/>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16420,8 +16391,8 @@
       <c r="E54" s="20">
         <v>6108</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="94"/>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
         <v>6108</v>
@@ -16441,8 +16412,8 @@
       <c r="E55" s="20">
         <v>12525</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
         <v>12525</v>
@@ -16462,8 +16433,8 @@
       <c r="E56" s="20">
         <v>25463</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="94"/>
       <c r="H56" s="18">
         <f t="shared" si="0"/>
         <v>25463</v>
@@ -16483,8 +16454,8 @@
       <c r="E57" s="20">
         <v>2640</v>
       </c>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
+      <c r="F57" s="93"/>
+      <c r="G57" s="94"/>
       <c r="H57" s="18">
         <f t="shared" si="0"/>
         <v>2640</v>
@@ -16504,8 +16475,8 @@
       <c r="E58" s="20">
         <v>51659</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="94"/>
       <c r="H58" s="18">
         <f t="shared" si="0"/>
         <v>51659</v>
@@ -16551,11 +16522,11 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>655048</v>
+        <v>656494</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>283074</v>
+        <v>281628</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -16597,12 +16568,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="168">
+      <c r="E65" s="154">
         <f>E61-G61</f>
-        <v>283074</v>
-      </c>
-      <c r="F65" s="169"/>
-      <c r="G65" s="170"/>
+        <v>281628</v>
+      </c>
+      <c r="F65" s="155"/>
+      <c r="G65" s="156"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16618,11 +16589,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="171" t="s">
+      <c r="E67" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="171"/>
-      <c r="G67" s="171"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -16781,366 +16752,1214 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <sheetPr>
+    <tabColor rgb="FFCC99FF"/>
+  </sheetPr>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="53" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="18" style="56" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="153" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="143">
-        <v>44616</v>
-      </c>
-      <c r="B3" s="138" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="22">
-        <v>61856.639999999999</v>
-      </c>
-      <c r="D3" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E3" s="151">
-        <v>61856.639999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="143">
-        <v>44617</v>
-      </c>
-      <c r="B4" s="138" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="22">
-        <v>145889.51999999999</v>
-      </c>
-      <c r="D4" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E4" s="151">
-        <v>145889.51999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="139">
-        <v>44617</v>
-      </c>
-      <c r="B5" s="140" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="22">
-        <v>200</v>
-      </c>
-      <c r="D5" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E5" s="151">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="141">
-        <v>44617</v>
-      </c>
-      <c r="B6" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="22">
-        <v>2373.8000000000002</v>
-      </c>
-      <c r="D6" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E6" s="151">
-        <v>2373.8000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="141">
-        <v>44618</v>
-      </c>
-      <c r="B7" s="142" t="s">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="22">
-        <v>40377.15</v>
-      </c>
-      <c r="D7" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E7" s="151">
-        <v>40377.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="144">
-        <v>44620</v>
-      </c>
-      <c r="B8" s="145" t="s">
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="163"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44683</v>
+      </c>
+      <c r="B4" s="13">
+        <v>340</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="15">
+        <v>9440</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H60" si="0">E4-G4</f>
+        <v>9440</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44684</v>
+      </c>
+      <c r="B5" s="13">
+        <v>341</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>44685</v>
+      </c>
+      <c r="B6" s="13">
+        <v>342</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="146">
-        <v>2909.4</v>
-      </c>
-      <c r="D8" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E8" s="148">
-        <v>2909.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="144">
-        <v>44621</v>
-      </c>
-      <c r="B9" s="145" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="146">
-        <v>74016.2</v>
-      </c>
-      <c r="D9" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E9" s="148">
-        <v>74016.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="144">
-        <v>44622</v>
-      </c>
-      <c r="B10" s="145" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="146">
-        <v>38036.6</v>
-      </c>
-      <c r="D10" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E10" s="148">
-        <v>38036.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="144">
-        <v>44623</v>
-      </c>
-      <c r="B11" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="146">
-        <v>52111.11</v>
-      </c>
-      <c r="D11" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E11" s="148">
-        <v>52111.11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="144">
-        <v>44623</v>
-      </c>
-      <c r="B12" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="146">
-        <v>394.2</v>
-      </c>
-      <c r="D12" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E12" s="148">
-        <v>394.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="144">
-        <v>44624</v>
-      </c>
-      <c r="B13" s="145" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="146">
-        <v>52173.7</v>
-      </c>
-      <c r="D13" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E13" s="148">
-        <v>52173.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="144">
-        <v>44625</v>
-      </c>
-      <c r="B14" s="145" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="146">
-        <v>47563.28</v>
-      </c>
-      <c r="D14" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E14" s="148">
-        <v>47563.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="144">
-        <v>44625</v>
-      </c>
-      <c r="B15" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="146">
-        <v>1406</v>
-      </c>
-      <c r="D15" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E15" s="148">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="144">
-        <v>44627</v>
-      </c>
-      <c r="B16" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="146">
-        <v>44449.599999999999</v>
-      </c>
-      <c r="D16" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E16" s="148">
-        <v>44449.599999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="144">
-        <v>44627</v>
-      </c>
-      <c r="B17" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="146">
-        <v>848.4</v>
-      </c>
-      <c r="D17" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E17" s="148">
-        <v>848.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="144">
-        <v>44628</v>
-      </c>
-      <c r="B18" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="146">
-        <v>71723.600000000006</v>
-      </c>
-      <c r="D18" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E18" s="148">
-        <v>71723.600000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="144">
-        <v>44628</v>
-      </c>
-      <c r="B19" s="145" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="146">
-        <v>1776</v>
-      </c>
-      <c r="D19" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E19" s="148">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="144">
-        <v>44629</v>
-      </c>
-      <c r="B20" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="146">
-        <v>76124.3</v>
-      </c>
-      <c r="D20" s="147">
-        <v>44643</v>
-      </c>
-      <c r="E20" s="148">
-        <v>61979.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="141">
-        <v>44618</v>
-      </c>
-      <c r="B23" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="E23" s="152">
-        <f>SUM(E3:E22)</f>
-        <v>700085</v>
-      </c>
+      <c r="E6" s="20">
+        <v>1625</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>44685</v>
+      </c>
+      <c r="B7" s="13">
+        <v>343</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="20">
+        <v>21172</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>21172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="89">
+        <v>44685</v>
+      </c>
+      <c r="B8" s="13">
+        <v>344</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20">
+        <v>129286</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="75">
+        <f t="shared" si="0"/>
+        <v>129286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>44685</v>
+      </c>
+      <c r="B9" s="13">
+        <v>345</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="20">
+        <v>65178</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>65178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44685</v>
+      </c>
+      <c r="B10" s="13">
+        <v>346</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="20">
+        <v>9568</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>9568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>44686</v>
+      </c>
+      <c r="B11" s="13">
+        <v>347</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="20">
+        <v>22022</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>22022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13">
+        <v>348</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13">
+        <v>349</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
+        <v>350</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
+        <v>351</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13">
+        <v>352</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13">
+        <v>353</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13">
+        <v>354</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13">
+        <v>355</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
+        <v>356</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13">
+        <v>357</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13">
+        <v>358</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
+        <v>359</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13">
+        <v>360</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13">
+        <v>361</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13">
+        <v>362</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
+        <v>363</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13">
+        <v>364</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13">
+        <v>365</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
+        <v>366</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13">
+        <v>367</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="13">
+        <v>368</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="13">
+        <v>369</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="13">
+        <v>370</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="13">
+        <v>371</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="13">
+        <v>372</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="13">
+        <v>373</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="13">
+        <v>374</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="13">
+        <v>375</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="13">
+        <v>376</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="13">
+        <v>377</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="13">
+        <v>378</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="13">
+        <v>379</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="13">
+        <v>380</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="13">
+        <v>381</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="13">
+        <v>382</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="13">
+        <v>383</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="13">
+        <v>384</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="13">
+        <v>385</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="13">
+        <v>386</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="13">
+        <v>387</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="13">
+        <v>388</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="13">
+        <v>389</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="13">
+        <v>390</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="13">
+        <v>391</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="13">
+        <v>392</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="13">
+        <v>393</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="13">
+        <v>394</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="13">
+        <v>395</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34">
+        <v>0</v>
+      </c>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="39">
+        <f>SUM(E4:E60)</f>
+        <v>258291</v>
+      </c>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39">
+        <f>SUM(G4:G60)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="40">
+        <f>SUM(H4:H60)</f>
+        <v>258291</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="42"/>
+      <c r="G63" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="44"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="37"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="154">
+        <f>E61-G61</f>
+        <v>258291</v>
+      </c>
+      <c r="F65" s="155"/>
+      <c r="G65" s="156"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="43"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="37"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="120"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="126"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="110"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="113"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="127"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="131"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="127"/>
+      <c r="B71" s="128"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="131"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="113"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="127"/>
+      <c r="B72" s="128"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="132"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="113"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="127"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="131"/>
+      <c r="F73" s="132"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="113"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="127"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="131"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="133"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="127"/>
+      <c r="B75" s="128"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="132"/>
+      <c r="G75" s="133"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="127"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="131"/>
+      <c r="F76" s="132"/>
+      <c r="G76" s="133"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="127"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="129"/>
+      <c r="D77" s="130"/>
+      <c r="E77" s="131"/>
+      <c r="F77" s="132"/>
+      <c r="G77" s="133"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="127"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="129"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="131"/>
+      <c r="F78" s="132"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="113"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="127"/>
+      <c r="B79" s="128"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="132"/>
+      <c r="G79" s="133"/>
+      <c r="H79" s="113"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="114"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="113"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="118"/>
+      <c r="G80" s="119"/>
+      <c r="H80" s="113"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E67:G67"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="50">
   <si>
     <t>REMISION</t>
   </si>
@@ -304,6 +304,9 @@
   <si>
     <t xml:space="preserve">PROSUBCA </t>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
 </sst>
 </file>
 
@@ -315,7 +318,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +498,14 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFCC0099"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -848,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1172,6 +1183,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1247,10 +1261,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC0099"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF990033"/>
-      <color rgb="FFCC0099"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF9966FF"/>
@@ -2665,24 +2679,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="161"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -3828,12 +3842,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="154">
+      <c r="D55" s="155">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="155"/>
-      <c r="F55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="157"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3847,11 +3861,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="157" t="s">
+      <c r="D57" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
+      <c r="E57" s="158"/>
+      <c r="F57" s="158"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3960,38 +3974,39 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="123"/>
     <col min="3" max="3" width="14.85546875" style="149" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="124" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="123"/>
+    <col min="6" max="6" width="11.42578125" style="153"/>
+    <col min="7" max="16384" width="11.42578125" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="164"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="166" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-    </row>
-    <row r="3" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="142" t="s">
         <v>44</v>
       </c>
@@ -4005,7 +4020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="140">
         <v>44690</v>
       </c>
@@ -4019,8 +4034,11 @@
         <f>D4</f>
         <v>67500</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="153" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="89">
         <v>44691</v>
       </c>
@@ -4035,7 +4053,7 @@
         <v>142189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="89">
         <v>44692</v>
       </c>
@@ -4050,7 +4068,7 @@
         <v>207018</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="89">
         <v>44693</v>
       </c>
@@ -4065,7 +4083,7 @@
         <v>247093</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="89">
         <v>44694</v>
       </c>
@@ -4080,7 +4098,7 @@
         <v>303144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="89">
         <v>44695</v>
       </c>
@@ -4095,7 +4113,7 @@
         <v>346594</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="89">
         <v>44696</v>
       </c>
@@ -4110,7 +4128,7 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="89"/>
       <c r="C11" s="147"/>
       <c r="D11" s="20"/>
@@ -4119,7 +4137,7 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="89"/>
       <c r="C12" s="147"/>
       <c r="D12" s="20"/>
@@ -4128,7 +4146,7 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="89"/>
       <c r="C13" s="147"/>
       <c r="D13" s="22"/>
@@ -4137,7 +4155,7 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="89"/>
       <c r="C14" s="147"/>
       <c r="D14" s="20"/>
@@ -4146,7 +4164,7 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="89"/>
       <c r="C15" s="147"/>
       <c r="D15" s="20"/>
@@ -4155,7 +4173,7 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="89"/>
       <c r="C16" s="147"/>
       <c r="D16" s="20"/>
@@ -4164,7 +4182,7 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="89"/>
       <c r="C17" s="147"/>
       <c r="D17" s="20"/>
@@ -4173,7 +4191,7 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="89"/>
       <c r="C18" s="147"/>
       <c r="D18" s="20"/>
@@ -4182,301 +4200,301 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30"/>
       <c r="C19" s="147"/>
       <c r="D19" s="138"/>
       <c r="E19" s="138"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="130"/>
       <c r="B20" s="110"/>
       <c r="C20" s="148"/>
       <c r="D20" s="60"/>
       <c r="E20" s="60"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="130"/>
       <c r="B21" s="110"/>
       <c r="C21" s="148"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="130"/>
       <c r="B22" s="110"/>
       <c r="C22" s="148"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="130"/>
       <c r="B23" s="110"/>
       <c r="C23" s="148"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="130"/>
       <c r="B24" s="110"/>
       <c r="C24" s="148"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="130"/>
       <c r="B25" s="110"/>
       <c r="C25" s="148"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="130"/>
       <c r="B26" s="110"/>
       <c r="C26" s="148"/>
       <c r="D26" s="60"/>
       <c r="E26" s="60"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="130"/>
       <c r="B27" s="110"/>
       <c r="C27" s="148"/>
       <c r="D27" s="60"/>
       <c r="E27" s="60"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="130"/>
       <c r="B28" s="110"/>
       <c r="C28" s="148"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="130"/>
       <c r="B29" s="110"/>
       <c r="C29" s="148"/>
       <c r="D29" s="60"/>
       <c r="E29" s="60"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="130"/>
       <c r="B30" s="110"/>
       <c r="C30" s="148"/>
       <c r="D30" s="60"/>
       <c r="E30" s="60"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="130"/>
       <c r="B31" s="110"/>
       <c r="C31" s="148"/>
       <c r="D31" s="60"/>
       <c r="E31" s="60"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="130"/>
       <c r="B32" s="110"/>
       <c r="C32" s="148"/>
       <c r="D32" s="60"/>
       <c r="E32" s="60"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="130"/>
       <c r="B33" s="110"/>
       <c r="C33" s="148"/>
       <c r="D33" s="60"/>
       <c r="E33" s="60"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="130"/>
       <c r="B34" s="110"/>
       <c r="C34" s="148"/>
       <c r="D34" s="60"/>
       <c r="E34" s="60"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="130"/>
       <c r="B35" s="110"/>
       <c r="C35" s="148"/>
       <c r="D35" s="60"/>
       <c r="E35" s="60"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="130"/>
       <c r="B36" s="110"/>
       <c r="C36" s="148"/>
       <c r="D36" s="60"/>
       <c r="E36" s="60"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="130"/>
       <c r="B37" s="110"/>
       <c r="C37" s="148"/>
       <c r="D37" s="60"/>
       <c r="E37" s="60"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="130"/>
       <c r="B38" s="110"/>
       <c r="C38" s="148"/>
       <c r="D38" s="60"/>
       <c r="E38" s="60"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="130"/>
       <c r="B39" s="110"/>
       <c r="C39" s="148"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="130"/>
       <c r="B40" s="110"/>
       <c r="C40" s="148"/>
       <c r="D40" s="60"/>
       <c r="E40" s="60"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="130"/>
       <c r="B41" s="110"/>
       <c r="C41" s="148"/>
       <c r="D41" s="60"/>
       <c r="E41" s="60"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="130"/>
       <c r="B42" s="110"/>
       <c r="C42" s="148"/>
       <c r="D42" s="60"/>
       <c r="E42" s="60"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="130"/>
       <c r="B43" s="110"/>
       <c r="C43" s="148"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="130"/>
       <c r="B44" s="110"/>
       <c r="C44" s="148"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="130"/>
       <c r="B45" s="110"/>
       <c r="C45" s="148"/>
       <c r="D45" s="143"/>
       <c r="E45" s="60"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="130"/>
       <c r="B46" s="110"/>
       <c r="C46" s="148"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="130"/>
       <c r="B47" s="110"/>
       <c r="C47" s="148"/>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="130"/>
       <c r="B48" s="110"/>
       <c r="C48" s="148"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="130"/>
       <c r="B49" s="110"/>
       <c r="C49" s="148"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="130"/>
       <c r="B50" s="110"/>
       <c r="C50" s="148"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="130"/>
       <c r="B51" s="110"/>
       <c r="C51" s="148"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="130"/>
       <c r="B52" s="110"/>
       <c r="C52" s="148"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="130"/>
       <c r="B53" s="110"/>
       <c r="C53" s="148"/>
       <c r="D53" s="62"/>
       <c r="E53" s="60"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="130"/>
       <c r="B54" s="110"/>
       <c r="C54" s="148"/>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="130"/>
       <c r="B55" s="110"/>
       <c r="C55" s="148"/>
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="130"/>
       <c r="B56" s="110"/>
       <c r="C56" s="148"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="130"/>
       <c r="B57" s="110"/>
       <c r="C57" s="148"/>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
     </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="130"/>
       <c r="B58" s="110"/>
       <c r="C58" s="148"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
     </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="130"/>
       <c r="B59" s="110"/>
       <c r="C59" s="148"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D60" s="131"/>
       <c r="E60" s="60"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D61" s="131"/>
       <c r="E61" s="139"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D62" s="131"/>
       <c r="E62" s="130"/>
     </row>
@@ -4516,27 +4534,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -4731,11 +4749,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="171">
+      <c r="G11" s="172">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="172"/>
+      <c r="H11" s="173"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -6110,11 +6128,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="173">
+      <c r="G81" s="174">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="174"/>
+      <c r="H81" s="175"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -6202,12 +6220,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="154">
+      <c r="E88" s="155">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="155"/>
-      <c r="G88" s="156"/>
+      <c r="F88" s="156"/>
+      <c r="G88" s="157"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -6224,11 +6242,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="157" t="s">
+      <c r="E90" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="157"/>
-      <c r="G90" s="157"/>
+      <c r="F90" s="158"/>
+      <c r="G90" s="158"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6373,25 +6391,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="161"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7283,12 +7301,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="154">
+      <c r="E52" s="155">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="155"/>
-      <c r="G52" s="156"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="157"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -7304,11 +7322,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="157" t="s">
+      <c r="E54" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="158"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -7464,25 +7482,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="161"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9212,12 +9230,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="154">
+      <c r="E76" s="155">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="155"/>
-      <c r="G76" s="156"/>
+      <c r="F76" s="156"/>
+      <c r="G76" s="157"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9233,11 +9251,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="157" t="s">
+      <c r="E78" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="157"/>
-      <c r="G78" s="157"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="158"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -9378,25 +9396,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="161"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10245,12 +10263,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="154">
+      <c r="E41" s="155">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="155"/>
-      <c r="G41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="157"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10266,11 +10284,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="157" t="s">
+      <c r="E43" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10414,25 +10432,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11772,12 +11790,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="154">
+      <c r="E60" s="155">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="155"/>
-      <c r="G60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="157"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -11793,11 +11811,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="157" t="s">
+      <c r="E62" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="158"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -11938,25 +11956,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13357,12 +13375,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="154">
+      <c r="E61" s="155">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="155"/>
-      <c r="G61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="157"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -13378,11 +13396,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="157" t="s">
+      <c r="E63" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -13523,25 +13541,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14991,12 +15009,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="154">
+      <c r="E64" s="155">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="155"/>
-      <c r="G64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="157"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15012,11 +15030,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="157" t="s">
+      <c r="E66" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15139,8 +15157,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15157,25 +15175,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16156,11 +16174,15 @@
       <c r="E43" s="20">
         <v>45974</v>
       </c>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94"/>
+      <c r="F43" s="93">
+        <v>44692</v>
+      </c>
+      <c r="G43" s="94">
+        <v>45974</v>
+      </c>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>45974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16522,11 +16544,11 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>656494</v>
+        <v>702468</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>281628</v>
+        <v>235654</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -16568,12 +16590,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="154">
+      <c r="E65" s="155">
         <f>E61-G61</f>
-        <v>281628</v>
-      </c>
-      <c r="F65" s="155"/>
-      <c r="G65" s="156"/>
+        <v>235654</v>
+      </c>
+      <c r="F65" s="156"/>
+      <c r="G65" s="157"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16589,11 +16611,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="157" t="s">
+      <c r="E67" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="158"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -16757,8 +16779,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16775,25 +16797,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="164"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16880,11 +16902,15 @@
       <c r="E6" s="20">
         <v>1625</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="21">
+        <v>44692</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1625</v>
+      </c>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>1625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16993,63 +17019,87 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12">
+        <v>44687</v>
+      </c>
       <c r="B12" s="13">
         <v>348</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="20">
+        <v>10275</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12">
+        <v>44690</v>
+      </c>
       <c r="B13" s="13">
         <v>349</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="20">
+        <v>12858</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12858</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12">
+        <v>44691</v>
+      </c>
       <c r="B14" s="13">
         <v>350</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="20">
+        <v>23765</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23765</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12">
+        <v>44692</v>
+      </c>
       <c r="B15" s="13">
         <v>351</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="20">
+        <v>1560</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -17731,16 +17781,16 @@
       <c r="D61" s="2"/>
       <c r="E61" s="39">
         <f>SUM(E4:E60)</f>
-        <v>258291</v>
+        <v>306749</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>258291</v>
+        <v>305124</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -17782,12 +17832,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="154">
+      <c r="E65" s="155">
         <f>E61-G61</f>
-        <v>258291</v>
-      </c>
-      <c r="F65" s="155"/>
-      <c r="G65" s="156"/>
+        <v>305124</v>
+      </c>
+      <c r="F65" s="156"/>
+      <c r="G65" s="157"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17803,11 +17853,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="157" t="s">
+      <c r="E67" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
+      <c r="F67" s="158"/>
+      <c r="G67" s="158"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="54">
   <si>
     <t>REMISION</t>
   </si>
@@ -306,6 +306,31 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>ABASTOS  11 SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NORMA LEDO   Central   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CANCELADA</t>
+    </r>
+  </si>
+  <si>
+    <t>GRACIELA LEDO PARRA</t>
   </si>
 </sst>
 </file>
@@ -15157,8 +15182,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16304,8 +16329,8 @@
       <c r="E49" s="20">
         <v>1446</v>
       </c>
-      <c r="F49" s="93">
-        <v>44685</v>
+      <c r="F49" s="93" t="s">
+        <v>51</v>
       </c>
       <c r="G49" s="94">
         <v>1446</v>
@@ -16455,11 +16480,15 @@
       <c r="E56" s="20">
         <v>25463</v>
       </c>
-      <c r="F56" s="93"/>
-      <c r="G56" s="94"/>
+      <c r="F56" s="93">
+        <v>44697</v>
+      </c>
+      <c r="G56" s="94">
+        <v>25463</v>
+      </c>
       <c r="H56" s="18">
         <f t="shared" si="0"/>
-        <v>25463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16544,11 +16573,11 @@
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>702468</v>
+        <v>727931</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>235654</v>
+        <v>210191</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -16592,7 +16621,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="155">
         <f>E61-G61</f>
-        <v>235654</v>
+        <v>210191</v>
       </c>
       <c r="F65" s="156"/>
       <c r="G65" s="157"/>
@@ -16780,7 +16809,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17095,36 +17124,52 @@
       <c r="E15" s="20">
         <v>1560</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="21">
+        <v>44699</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1560</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>1560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>44692</v>
+      </c>
       <c r="B16" s="13">
         <v>352</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="20">
+        <v>31898</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+        <v>31898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>44693</v>
+      </c>
       <c r="B17" s="13">
         <v>353</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="18">
@@ -17133,105 +17178,151 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>44694</v>
+      </c>
       <c r="B18" s="13">
         <v>354</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="20">
+        <v>641</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>44695</v>
+      </c>
       <c r="B19" s="13">
         <v>355</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="20">
+        <v>80</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12">
+        <v>44697</v>
+      </c>
       <c r="B20" s="13">
         <v>356</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="20">
+        <v>9963</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9963</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>44697</v>
+      </c>
       <c r="B21" s="13">
         <v>357</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="20">
+        <v>1273</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44699</v>
+      </c>
       <c r="B22" s="13">
         <v>358</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="20">
+        <v>1556</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>44699</v>
+      </c>
       <c r="B23" s="13">
         <v>359</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="20">
+        <v>29340</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29340</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>44699</v>
+      </c>
       <c r="B24" s="13">
         <v>360</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="D24" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="20">
+        <v>8192</v>
+      </c>
+      <c r="F24" s="21">
+        <v>44699</v>
+      </c>
+      <c r="G24" s="22">
+        <v>8192</v>
+      </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -17781,16 +17872,16 @@
       <c r="D61" s="2"/>
       <c r="E61" s="39">
         <f>SUM(E4:E60)</f>
-        <v>306749</v>
+        <v>389692</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>1625</v>
+        <v>11377</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>305124</v>
+        <v>378315</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -17834,7 +17925,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="155">
         <f>E61-G61</f>
-        <v>305124</v>
+        <v>378315</v>
       </c>
       <c r="F65" s="156"/>
       <c r="G65" s="157"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -3999,10 +3999,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4015,14 +4015,14 @@
     <col min="7" max="16384" width="11.42578125" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="165"/>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
       <c r="E1" s="166"/>
     </row>
-    <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="167" t="s">
         <v>43</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="D2" s="168"/>
       <c r="E2" s="168"/>
     </row>
-    <row r="3" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="142" t="s">
         <v>44</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="140">
         <v>44690</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="89">
         <v>44691</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>142189</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="89">
         <v>44692</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>207018</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="89">
         <v>44693</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>247093</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="89">
         <v>44694</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>303144</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="89">
         <v>44695</v>
       </c>
@@ -4137,8 +4137,11 @@
         <f t="shared" si="0"/>
         <v>346594</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="89">
         <v>44696</v>
       </c>
@@ -4153,67 +4156,109 @@
         <v>398929</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="20"/>
+    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="89">
+        <v>44697</v>
+      </c>
+      <c r="C11" s="147">
+        <v>44701</v>
+      </c>
+      <c r="D11" s="20">
+        <v>69191</v>
+      </c>
       <c r="E11" s="20">
         <f t="shared" si="0"/>
-        <v>398929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="89"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="20"/>
+        <v>468120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="89">
+        <v>44698</v>
+      </c>
+      <c r="C12" s="147">
+        <v>44701</v>
+      </c>
+      <c r="D12" s="20">
+        <v>50155</v>
+      </c>
       <c r="E12" s="20">
         <f t="shared" si="0"/>
-        <v>398929</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="22"/>
+        <v>518275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="89">
+        <v>44699</v>
+      </c>
+      <c r="C13" s="147">
+        <v>44701</v>
+      </c>
+      <c r="D13" s="22">
+        <v>55227</v>
+      </c>
       <c r="E13" s="20">
         <f t="shared" si="0"/>
-        <v>398929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="89"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="20"/>
+        <v>573502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="89">
+        <v>44700</v>
+      </c>
+      <c r="C14" s="147">
+        <v>44701</v>
+      </c>
+      <c r="D14" s="20">
+        <v>47102</v>
+      </c>
       <c r="E14" s="20">
         <f t="shared" si="0"/>
-        <v>398929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="89"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="20"/>
+        <v>620604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="89">
+        <v>44701</v>
+      </c>
+      <c r="C15" s="147">
+        <v>44704</v>
+      </c>
+      <c r="D15" s="20">
+        <v>93134</v>
+      </c>
       <c r="E15" s="20">
         <f t="shared" si="0"/>
-        <v>398929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="89"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="20"/>
+        <v>713738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="89">
+        <v>44702</v>
+      </c>
+      <c r="C16" s="147">
+        <v>44704</v>
+      </c>
+      <c r="D16" s="20">
+        <v>22308</v>
+      </c>
       <c r="E16" s="20">
         <f t="shared" si="0"/>
-        <v>398929</v>
+        <v>736046</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="89">
+        <v>44703</v>
+      </c>
+      <c r="C17" s="147">
+        <v>44704</v>
+      </c>
+      <c r="D17" s="20">
+        <v>23536</v>
+      </c>
       <c r="E17" s="20">
         <f t="shared" si="0"/>
-        <v>398929</v>
+        <v>759582</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4222,7 +4267,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20">
         <f t="shared" si="0"/>
-        <v>398929</v>
+        <v>759582</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16808,7 +16853,7 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="88">
   <si>
     <t>REMISION</t>
   </si>
@@ -332,6 +332,108 @@
   <si>
     <t>GRACIELA LEDO PARRA</t>
   </si>
+  <si>
+    <t>09/04/2022</t>
+  </si>
+  <si>
+    <t>C-18193</t>
+  </si>
+  <si>
+    <t>C-18265</t>
+  </si>
+  <si>
+    <t>11/04/2022</t>
+  </si>
+  <si>
+    <t>C-18374</t>
+  </si>
+  <si>
+    <t>C-18375</t>
+  </si>
+  <si>
+    <t>12/04/2022</t>
+  </si>
+  <si>
+    <t>C-18521</t>
+  </si>
+  <si>
+    <t>13/04/2022</t>
+  </si>
+  <si>
+    <t>C-18625</t>
+  </si>
+  <si>
+    <t>14/04/2022</t>
+  </si>
+  <si>
+    <t>C-18733</t>
+  </si>
+  <si>
+    <t>C-18776</t>
+  </si>
+  <si>
+    <t>16/04/2022</t>
+  </si>
+  <si>
+    <t>C-18883</t>
+  </si>
+  <si>
+    <t>18/04/2022</t>
+  </si>
+  <si>
+    <t>C-19081</t>
+  </si>
+  <si>
+    <t>19/04/2022</t>
+  </si>
+  <si>
+    <t>C-19160</t>
+  </si>
+  <si>
+    <t>C-19170</t>
+  </si>
+  <si>
+    <t>C-19216</t>
+  </si>
+  <si>
+    <t>20/04/2022</t>
+  </si>
+  <si>
+    <t>C-19283</t>
+  </si>
+  <si>
+    <t>C-19315</t>
+  </si>
+  <si>
+    <t>21/04/2022</t>
+  </si>
+  <si>
+    <t>C-19425</t>
+  </si>
+  <si>
+    <t>22/04/2022</t>
+  </si>
+  <si>
+    <t>C-19561</t>
+  </si>
+  <si>
+    <t>C-19605</t>
+  </si>
+  <si>
+    <t>23/04/2022</t>
+  </si>
+  <si>
+    <t>C-19642</t>
+  </si>
+  <si>
+    <t>C-19644</t>
+  </si>
+  <si>
+    <t>C-19690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPOSITOS APLICADOS </t>
+  </si>
 </sst>
 </file>
 
@@ -536,7 +638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +714,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,7 +1281,6 @@
     <xf numFmtId="165" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1211,6 +1318,29 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="14" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="22" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1286,11 +1416,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFCC0099"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF990033"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF9900"/>
@@ -1419,6 +1549,117 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="27922540"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="27970167"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2311,101 +2552,44 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Conector angular 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4576765" y="27922540"/>
-          <a:ext cx="581022" cy="590546"/>
+        <a:xfrm>
+          <a:off x="3848100" y="5753100"/>
+          <a:ext cx="4619625" cy="1123950"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="arrow"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>123829</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5472114" y="27970167"/>
-          <a:ext cx="638173" cy="495298"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2704,24 +2888,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="161"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="173"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -3867,12 +4051,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="155">
+      <c r="D55" s="167">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="156"/>
-      <c r="F55" s="157"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="169"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3886,11 +4070,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="158" t="s">
+      <c r="D57" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3999,75 +4183,124 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="123"/>
-    <col min="3" max="3" width="14.85546875" style="149" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="148" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="124" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="153"/>
-    <col min="7" max="16384" width="11.42578125" style="123"/>
+    <col min="5" max="5" width="15.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="152"/>
+    <col min="7" max="8" width="11.42578125" style="123"/>
+    <col min="9" max="9" width="13.85546875" style="123" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="123"/>
+    <col min="11" max="11" width="17.42578125" style="123" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="165"/>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-    </row>
-    <row r="2" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="167" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="177"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+    </row>
+    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-    </row>
-    <row r="3" spans="1:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="142" t="s">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="G2" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="155">
+        <v>67001.67</v>
+      </c>
+      <c r="J2" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K2" s="155">
+        <v>67001.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="150" t="s">
+      <c r="D3" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="144" t="s">
+      <c r="E3" s="143" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="140">
+      <c r="G3" s="153" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="154" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="155">
+        <v>5256</v>
+      </c>
+      <c r="J3" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K3" s="155">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="139">
         <v>44690</v>
       </c>
-      <c r="C4" s="146">
+      <c r="C4" s="145">
         <v>44693</v>
       </c>
-      <c r="D4" s="141">
+      <c r="D4" s="140">
         <v>67500</v>
       </c>
-      <c r="E4" s="141">
+      <c r="E4" s="140">
         <f>D4</f>
         <v>67500</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="152" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="155">
+        <v>40472.6</v>
+      </c>
+      <c r="J4" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K4" s="155">
+        <v>40472.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="89">
         <v>44691</v>
       </c>
-      <c r="C5" s="147">
+      <c r="C5" s="146">
         <v>44693</v>
       </c>
       <c r="D5" s="20">
@@ -4077,12 +4310,27 @@
         <f>E4+D5</f>
         <v>142189</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="154" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="155">
+        <v>3906</v>
+      </c>
+      <c r="J5" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K5" s="155">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="89">
         <v>44692</v>
       </c>
-      <c r="C6" s="147">
+      <c r="C6" s="146">
         <v>44693</v>
       </c>
       <c r="D6" s="20">
@@ -4092,12 +4340,27 @@
         <f>E5+D6</f>
         <v>207018</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="153" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="154" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="155">
+        <v>33820.800000000003</v>
+      </c>
+      <c r="J6" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K6" s="155">
+        <v>33820.800000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="89">
         <v>44693</v>
       </c>
-      <c r="C7" s="147">
+      <c r="C7" s="146">
         <v>44697</v>
       </c>
       <c r="D7" s="20">
@@ -4107,12 +4370,27 @@
         <f t="shared" ref="E7:E18" si="0">E6+D7</f>
         <v>247093</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="153" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="154" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="155">
+        <v>36277.25</v>
+      </c>
+      <c r="J7" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K7" s="155">
+        <v>36277.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="89">
         <v>44694</v>
       </c>
-      <c r="C8" s="147">
+      <c r="C8" s="146">
         <v>44697</v>
       </c>
       <c r="D8" s="20">
@@ -4122,12 +4400,27 @@
         <f t="shared" si="0"/>
         <v>303144</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="153" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="155">
+        <v>61531.34</v>
+      </c>
+      <c r="J8" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K8" s="155">
+        <v>61531.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="89">
         <v>44695</v>
       </c>
-      <c r="C9" s="147">
+      <c r="C9" s="146">
         <v>44697</v>
       </c>
       <c r="D9" s="20">
@@ -4137,15 +4430,27 @@
         <f t="shared" si="0"/>
         <v>346594</v>
       </c>
-      <c r="H9" s="123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="153" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="154" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="155">
+        <v>12189.9</v>
+      </c>
+      <c r="J9" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K9" s="155">
+        <v>12189.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="89">
         <v>44696</v>
       </c>
-      <c r="C10" s="147">
+      <c r="C10" s="146">
         <v>44697</v>
       </c>
       <c r="D10" s="20">
@@ -4155,12 +4460,27 @@
         <f t="shared" si="0"/>
         <v>398929</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="154" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="155">
+        <v>64256.75</v>
+      </c>
+      <c r="J10" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K10" s="155">
+        <v>64256.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="89">
         <v>44697</v>
       </c>
-      <c r="C11" s="147">
+      <c r="C11" s="146">
         <v>44701</v>
       </c>
       <c r="D11" s="20">
@@ -4170,12 +4490,27 @@
         <f t="shared" si="0"/>
         <v>468120</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="155">
+        <v>53375.8</v>
+      </c>
+      <c r="J11" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K11" s="155">
+        <v>53375.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="89">
         <v>44698</v>
       </c>
-      <c r="C12" s="147">
+      <c r="C12" s="146">
         <v>44701</v>
       </c>
       <c r="D12" s="20">
@@ -4185,12 +4520,27 @@
         <f t="shared" si="0"/>
         <v>518275</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="155">
+        <v>126366.49</v>
+      </c>
+      <c r="J12" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K12" s="155">
+        <v>126366.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="89">
         <v>44699</v>
       </c>
-      <c r="C13" s="147">
+      <c r="C13" s="146">
         <v>44701</v>
       </c>
       <c r="D13" s="22">
@@ -4200,12 +4550,27 @@
         <f t="shared" si="0"/>
         <v>573502</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="155">
+        <v>6102</v>
+      </c>
+      <c r="J13" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K13" s="155">
+        <v>6102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="89">
         <v>44700</v>
       </c>
-      <c r="C14" s="147">
+      <c r="C14" s="146">
         <v>44701</v>
       </c>
       <c r="D14" s="20">
@@ -4215,12 +4580,27 @@
         <f t="shared" si="0"/>
         <v>620604</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="155">
+        <v>4812</v>
+      </c>
+      <c r="J14" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K14" s="155">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="89">
         <v>44701</v>
       </c>
-      <c r="C15" s="147">
+      <c r="C15" s="146">
         <v>44704</v>
       </c>
       <c r="D15" s="20">
@@ -4230,12 +4610,27 @@
         <f t="shared" si="0"/>
         <v>713738</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="153" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="154" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="155">
+        <v>10160.6</v>
+      </c>
+      <c r="J15" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K15" s="155">
+        <v>10160.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="89">
         <v>44702</v>
       </c>
-      <c r="C16" s="147">
+      <c r="C16" s="146">
         <v>44704</v>
       </c>
       <c r="D16" s="20">
@@ -4245,12 +4640,27 @@
         <f t="shared" si="0"/>
         <v>736046</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="153" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="155">
+        <v>75337.5</v>
+      </c>
+      <c r="J16" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K16" s="155">
+        <v>75337.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="89">
         <v>44703</v>
       </c>
-      <c r="C17" s="147">
+      <c r="C17" s="146">
         <v>44704</v>
       </c>
       <c r="D17" s="20">
@@ -4260,299 +4670,464 @@
         <f t="shared" si="0"/>
         <v>759582</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="154" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="155">
+        <v>29920.44</v>
+      </c>
+      <c r="J17" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K17" s="155">
+        <v>29920.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="89"/>
-      <c r="C18" s="147"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="20">
+      <c r="E18" s="165">
         <f t="shared" si="0"/>
         <v>759582</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="153" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="154" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="155">
+        <v>72246.7</v>
+      </c>
+      <c r="J18" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K18" s="155">
+        <v>72246.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="G19" s="153" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="155">
+        <v>3036</v>
+      </c>
+      <c r="J19" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K19" s="155">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="130"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="G20" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="155">
+        <v>1627.2</v>
+      </c>
+      <c r="J20" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K20" s="155">
+        <v>1627.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="130"/>
       <c r="B21" s="110"/>
-      <c r="C21" s="148"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="154" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="155">
+        <v>1238.8</v>
+      </c>
+      <c r="J21" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K21" s="155">
+        <v>1238.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="130"/>
       <c r="B22" s="110"/>
-      <c r="C22" s="148"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" s="153" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="155">
+        <v>62762.55</v>
+      </c>
+      <c r="J22" s="156">
+        <v>44706</v>
+      </c>
+      <c r="K22" s="157">
+        <v>50646.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="130"/>
       <c r="B23" s="110"/>
-      <c r="C23" s="148"/>
+      <c r="C23" s="147"/>
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="K23" s="158">
+        <f>SUM(K2:K22)</f>
+        <v>759581.99999999988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="130"/>
       <c r="B24" s="110"/>
-      <c r="C24" s="148"/>
+      <c r="C24" s="147"/>
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="130"/>
       <c r="B25" s="110"/>
-      <c r="C25" s="148"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="130"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="130"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="130"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="130"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="130"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="130"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="130"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="130"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="130"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="130"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="130"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="130"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="130"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="130"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="130"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
+    <row r="26" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="179" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+    </row>
+    <row r="27" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="139">
+        <v>44704</v>
+      </c>
+      <c r="C28" s="145"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="139">
+        <v>44705</v>
+      </c>
+      <c r="C29" s="146"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20">
+        <f>E28+D29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="139">
+        <v>44706</v>
+      </c>
+      <c r="C30" s="146"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20">
+        <f>E29+D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="139">
+        <v>44707</v>
+      </c>
+      <c r="C31" s="146"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20">
+        <f t="shared" ref="E31:E42" si="1">E30+D31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="139">
+        <v>44708</v>
+      </c>
+      <c r="C32" s="146"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="139">
+        <v>44709</v>
+      </c>
+      <c r="C33" s="146"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="139">
+        <v>44710</v>
+      </c>
+      <c r="C34" s="146"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="139">
+        <v>44711</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="139">
+        <v>44712</v>
+      </c>
+      <c r="C36" s="146"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="139">
+        <v>44713</v>
+      </c>
+      <c r="C37" s="146"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="139">
+        <v>44714</v>
+      </c>
+      <c r="C38" s="146"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="139">
+        <v>44715</v>
+      </c>
+      <c r="C39" s="146"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="139">
+        <v>44716</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="139">
+        <v>44717</v>
+      </c>
+      <c r="C41" s="146"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="130"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
+      <c r="B42" s="139">
+        <v>44718</v>
+      </c>
+      <c r="C42" s="146"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="165">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="130"/>
       <c r="B43" s="110"/>
-      <c r="C43" s="148"/>
+      <c r="C43" s="147"/>
       <c r="D43" s="60"/>
       <c r="E43" s="60"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="130"/>
       <c r="B44" s="110"/>
-      <c r="C44" s="148"/>
+      <c r="C44" s="147"/>
       <c r="D44" s="60"/>
       <c r="E44" s="60"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="130"/>
       <c r="B45" s="110"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="143"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="142"/>
       <c r="E45" s="60"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="130"/>
       <c r="B46" s="110"/>
-      <c r="C46" s="148"/>
+      <c r="C46" s="147"/>
       <c r="D46" s="60"/>
       <c r="E46" s="60"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="130"/>
       <c r="B47" s="110"/>
-      <c r="C47" s="148"/>
+      <c r="C47" s="147"/>
       <c r="D47" s="60"/>
       <c r="E47" s="60"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="130"/>
       <c r="B48" s="110"/>
-      <c r="C48" s="148"/>
+      <c r="C48" s="147"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="130"/>
       <c r="B49" s="110"/>
-      <c r="C49" s="148"/>
+      <c r="C49" s="147"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="130"/>
       <c r="B50" s="110"/>
-      <c r="C50" s="148"/>
+      <c r="C50" s="147"/>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="130"/>
       <c r="B51" s="110"/>
-      <c r="C51" s="148"/>
+      <c r="C51" s="147"/>
       <c r="D51" s="60"/>
       <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="130"/>
       <c r="B52" s="110"/>
-      <c r="C52" s="148"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="60"/>
       <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="130"/>
       <c r="B53" s="110"/>
-      <c r="C53" s="148"/>
+      <c r="C53" s="147"/>
       <c r="D53" s="62"/>
       <c r="E53" s="60"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="130"/>
       <c r="B54" s="110"/>
-      <c r="C54" s="148"/>
+      <c r="C54" s="147"/>
       <c r="D54" s="60"/>
       <c r="E54" s="60"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="130"/>
       <c r="B55" s="110"/>
-      <c r="C55" s="148"/>
+      <c r="C55" s="147"/>
       <c r="D55" s="60"/>
       <c r="E55" s="60"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="130"/>
       <c r="B56" s="110"/>
-      <c r="C56" s="148"/>
+      <c r="C56" s="147"/>
       <c r="D56" s="60"/>
       <c r="E56" s="60"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="130"/>
       <c r="B57" s="110"/>
-      <c r="C57" s="148"/>
+      <c r="C57" s="147"/>
       <c r="D57" s="60"/>
       <c r="E57" s="60"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="130"/>
       <c r="B58" s="110"/>
-      <c r="C58" s="148"/>
+      <c r="C58" s="147"/>
       <c r="D58" s="60"/>
       <c r="E58" s="60"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="130"/>
       <c r="B59" s="110"/>
-      <c r="C59" s="148"/>
+      <c r="C59" s="147"/>
       <c r="D59" s="60"/>
       <c r="E59" s="60"/>
     </row>
@@ -4562,7 +5137,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D61" s="131"/>
-      <c r="E61" s="139"/>
+      <c r="E61" s="138"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D62" s="131"/>
@@ -4572,11 +5147,14 @@
   <sortState ref="B3:G63">
     <sortCondition ref="D3:D63"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4604,27 +5182,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -4819,11 +5397,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="172">
+      <c r="G11" s="184">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="173"/>
+      <c r="H11" s="185"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -6198,11 +6776,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="174">
+      <c r="G81" s="186">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="175"/>
+      <c r="H81" s="187"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -6290,12 +6868,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="155">
+      <c r="E88" s="167">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="156"/>
-      <c r="G88" s="157"/>
+      <c r="F88" s="168"/>
+      <c r="G88" s="169"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -6312,11 +6890,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="158" t="s">
+      <c r="E90" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="158"/>
-      <c r="G90" s="158"/>
+      <c r="F90" s="170"/>
+      <c r="G90" s="170"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6461,25 +7039,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="161"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7371,12 +7949,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="155">
+      <c r="E52" s="167">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="156"/>
-      <c r="G52" s="157"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="169"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -7392,11 +7970,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="158" t="s">
+      <c r="E54" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -7552,25 +8130,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="161"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9300,12 +9878,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="155">
+      <c r="E76" s="167">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="156"/>
-      <c r="G76" s="157"/>
+      <c r="F76" s="168"/>
+      <c r="G76" s="169"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9321,11 +9899,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="158" t="s">
+      <c r="E78" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="158"/>
-      <c r="G78" s="158"/>
+      <c r="F78" s="170"/>
+      <c r="G78" s="170"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -9466,25 +10044,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="161"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="173"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10333,12 +10911,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="155">
+      <c r="E41" s="167">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="156"/>
-      <c r="G41" s="157"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="169"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10354,11 +10932,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="158" t="s">
+      <c r="E43" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10502,25 +11080,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="164"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -11860,12 +12438,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="155">
+      <c r="E60" s="167">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="156"/>
-      <c r="G60" s="157"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="169"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -11881,11 +12459,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="158" t="s">
+      <c r="E62" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="158"/>
-      <c r="G62" s="158"/>
+      <c r="F62" s="170"/>
+      <c r="G62" s="170"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -12026,25 +12604,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="164"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13445,12 +14023,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="155">
+      <c r="E61" s="167">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="156"/>
-      <c r="G61" s="157"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="169"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -13466,11 +14044,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="158" t="s">
+      <c r="E63" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="158"/>
-      <c r="G63" s="158"/>
+      <c r="F63" s="170"/>
+      <c r="G63" s="170"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -13611,25 +14189,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="164"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15079,12 +15657,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="155">
+      <c r="E64" s="167">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="156"/>
-      <c r="G64" s="157"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="169"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15100,11 +15678,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="158" t="s">
+      <c r="E66" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="158"/>
-      <c r="G66" s="158"/>
+      <c r="F66" s="170"/>
+      <c r="G66" s="170"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15245,25 +15823,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="164"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16664,12 +17242,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="155">
+      <c r="E65" s="167">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="156"/>
-      <c r="G65" s="157"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="169"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -16685,11 +17263,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="158" t="s">
+      <c r="E67" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="158"/>
-      <c r="G67" s="158"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -16853,8 +17431,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16871,25 +17449,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="164"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="166" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17016,7 +17594,7 @@
         <v>344</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="151" t="s">
+      <c r="D8" s="150" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="20">
@@ -17209,7 +17787,7 @@
         <v>353</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="150" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="20">
@@ -17335,7 +17913,7 @@
         <v>359</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="151" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="20">
@@ -17356,7 +17934,7 @@
         <v>360</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="152" t="s">
+      <c r="D24" s="151" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="20">
@@ -17374,33 +17952,49 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44700</v>
+      </c>
       <c r="B25" s="13">
         <v>361</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="D25" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="20">
+        <v>8257</v>
+      </c>
+      <c r="F25" s="21">
+        <v>44700</v>
+      </c>
+      <c r="G25" s="22">
+        <v>8257</v>
+      </c>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44700</v>
+      </c>
       <c r="B26" s="13">
         <v>362</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="20">
+        <v>27353</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27353</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -17917,16 +18511,16 @@
       <c r="D61" s="2"/>
       <c r="E61" s="39">
         <f>SUM(E4:E60)</f>
-        <v>389692</v>
+        <v>425302</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>11377</v>
+        <v>19634</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>378315</v>
+        <v>405668</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -17968,12 +18562,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="155">
+      <c r="E65" s="167">
         <f>E61-G61</f>
-        <v>378315</v>
-      </c>
-      <c r="F65" s="156"/>
-      <c r="G65" s="157"/>
+        <v>405668</v>
+      </c>
+      <c r="F65" s="168"/>
+      <c r="G65" s="169"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17989,11 +18583,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="158" t="s">
+      <c r="E67" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="158"/>
-      <c r="G67" s="158"/>
+      <c r="F67" s="170"/>
+      <c r="G67" s="170"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="88">
   <si>
     <t>REMISION</t>
   </si>
@@ -4185,8 +4185,8 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -15805,7 +15805,7 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
+    <sheetView topLeftCell="B43" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
@@ -17431,8 +17431,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17579,11 +17579,15 @@
       <c r="E7" s="20">
         <v>21172</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="21">
+        <v>44701</v>
+      </c>
+      <c r="G7" s="22">
+        <v>21172</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>21172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
@@ -17998,63 +18002,95 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44701</v>
+      </c>
       <c r="B27" s="13">
         <v>363</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="D27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="20">
+        <v>8200</v>
+      </c>
+      <c r="F27" s="21">
+        <v>44701</v>
+      </c>
+      <c r="G27" s="22">
+        <v>8200</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>44701</v>
+      </c>
       <c r="B28" s="13">
         <v>364</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="20">
+        <v>132</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44702</v>
+      </c>
       <c r="B29" s="13">
         <v>365</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="D29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="20">
+        <v>8446</v>
+      </c>
+      <c r="F29" s="21">
+        <v>44702</v>
+      </c>
+      <c r="G29" s="22">
+        <v>8446</v>
+      </c>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>44704</v>
+      </c>
       <c r="B30" s="13">
         <v>366</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="20">
+        <v>7416</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18511,16 +18547,16 @@
       <c r="D61" s="2"/>
       <c r="E61" s="39">
         <f>SUM(E4:E60)</f>
-        <v>425302</v>
+        <v>449496</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>19634</v>
+        <v>57452</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>405668</v>
+        <v>392044</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -18564,7 +18600,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="167">
         <f>E61-G61</f>
-        <v>405668</v>
+        <v>392044</v>
       </c>
       <c r="F65" s="168"/>
       <c r="G65" s="169"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="88">
   <si>
     <t>REMISION</t>
   </si>
@@ -4185,8 +4185,8 @@
   </sheetPr>
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -17431,8 +17431,8 @@
   </sheetPr>
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17730,11 +17730,15 @@
       <c r="E14" s="20">
         <v>23765</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="21">
+        <v>44707</v>
+      </c>
+      <c r="G14" s="22">
+        <v>23765</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>23765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -17818,11 +17822,15 @@
       <c r="E18" s="20">
         <v>641</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="21">
+        <v>44708</v>
+      </c>
+      <c r="G18" s="22">
+        <v>641</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -17902,11 +17910,15 @@
       <c r="E22" s="20">
         <v>1556</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="21">
+        <v>44706</v>
+      </c>
+      <c r="G22" s="22">
+        <v>1556</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>1556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
@@ -18094,28 +18106,40 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44706</v>
+      </c>
       <c r="B31" s="13">
         <v>367</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1412</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>44706</v>
+      </c>
       <c r="B32" s="13">
         <v>368</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="20">
+        <v>11890</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
@@ -18123,27 +18147,43 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="23">
+        <v>44708</v>
+      </c>
       <c r="B33" s="13">
         <v>369</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="20">
+        <v>8000</v>
+      </c>
+      <c r="F33" s="21">
+        <v>44708</v>
+      </c>
+      <c r="G33" s="22">
+        <v>8000</v>
+      </c>
       <c r="H33" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>44708</v>
+      </c>
       <c r="B34" s="13">
         <v>370</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1140</v>
+      </c>
       <c r="F34" s="134"/>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
@@ -18547,16 +18587,16 @@
       <c r="D61" s="2"/>
       <c r="E61" s="39">
         <f>SUM(E4:E60)</f>
-        <v>449496</v>
+        <v>471938</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>57452</v>
+        <v>91414</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>392044</v>
+        <v>367494</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -18600,7 +18640,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="167">
         <f>E61-G61</f>
-        <v>392044</v>
+        <v>380524</v>
       </c>
       <c r="F65" s="168"/>
       <c r="G65" s="169"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="88">
   <si>
     <t>REMISION</t>
   </si>
@@ -17432,7 +17432,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18098,11 +18098,15 @@
       <c r="E30" s="20">
         <v>7416</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="21">
+        <v>44709</v>
+      </c>
+      <c r="G30" s="22">
+        <v>7416</v>
+      </c>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>7416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18191,45 +18195,71 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="23">
+        <v>44709</v>
+      </c>
       <c r="B35" s="13">
         <v>371</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="D35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="20">
+        <v>8002</v>
+      </c>
+      <c r="F35" s="21">
+        <v>44740</v>
+      </c>
+      <c r="G35" s="22">
+        <v>8002</v>
+      </c>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>44709</v>
+      </c>
       <c r="B36" s="13">
         <v>372</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1843</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="23">
+        <v>44710</v>
+      </c>
       <c r="B37" s="13">
         <v>373</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="D37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="20">
+        <v>8000</v>
+      </c>
+      <c r="F37" s="21">
+        <v>44710</v>
+      </c>
+      <c r="G37" s="22">
+        <v>8000</v>
+      </c>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -18587,16 +18617,16 @@
       <c r="D61" s="2"/>
       <c r="E61" s="39">
         <f>SUM(E4:E60)</f>
-        <v>471938</v>
+        <v>489783</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39">
         <f>SUM(G4:G60)</f>
-        <v>91414</v>
+        <v>114832</v>
       </c>
       <c r="H61" s="40">
         <f>SUM(H4:H60)</f>
-        <v>367494</v>
+        <v>361921</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -18640,7 +18670,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="167">
         <f>E61-G61</f>
-        <v>380524</v>
+        <v>374951</v>
       </c>
       <c r="F65" s="168"/>
       <c r="G65" s="169"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -2442,13 +2442,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2495,13 +2495,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -17429,10 +17429,10 @@
   <sheetPr>
     <tabColor rgb="FFCC99FF"/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17514,7 +17514,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H60" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H38" si="0">E4-G4</f>
         <v>9440</v>
       </c>
       <c r="I4" s="2"/>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>44708</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>44708</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>44709</v>
       </c>
@@ -18219,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>44709</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>44710</v>
       </c>
@@ -18265,583 +18265,253 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="13">
-        <v>374</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="13">
-        <v>375</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="13">
-        <v>376</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="13">
-        <v>377</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="13">
-        <v>378</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="13">
-        <v>379</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="13">
-        <v>380</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="13">
-        <v>381</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="13">
-        <v>382</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="13">
-        <v>383</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="13">
-        <v>384</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="13">
-        <v>385</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="13">
-        <v>386</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="13">
-        <v>387</v>
-      </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="13">
-        <v>388</v>
-      </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="13">
-        <v>389</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="13">
-        <v>390</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="13">
-        <v>391</v>
-      </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="13">
-        <v>392</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="13">
-        <v>393</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="13">
-        <v>394</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="13">
-        <v>395</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
-      <c r="B60" s="109"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34">
-        <v>0</v>
-      </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="39">
-        <f>SUM(E4:E60)</f>
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34">
+        <v>0</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="39">
+        <f>SUM(E4:E38)</f>
         <v>489783</v>
       </c>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39">
-        <f>SUM(G4:G60)</f>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39">
+        <f>SUM(G4:G38)</f>
         <v>114832</v>
       </c>
-      <c r="H61" s="40">
-        <f>SUM(H4:H60)</f>
+      <c r="H39" s="40">
+        <f>SUM(H4:H38)</f>
         <v>361921</v>
       </c>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="37"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="45" t="s">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="42"/>
-      <c r="G63" s="46" t="s">
+      <c r="F41" s="42"/>
+      <c r="G41" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H63" s="44"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="167">
-        <f>E61-G61</f>
+      <c r="H41" s="44"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="167">
+        <f>E39-G39</f>
         <v>374951</v>
       </c>
-      <c r="F65" s="168"/>
-      <c r="G65" s="169"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="37"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="43"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B67" s="37"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="170" t="s">
+      <c r="F43" s="168"/>
+      <c r="G43" s="169"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="120"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="126"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="110"/>
-      <c r="B69" s="111"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="127"/>
-      <c r="B70" s="128"/>
-      <c r="C70" s="129"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="131"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="113"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="127"/>
-      <c r="B71" s="128"/>
-      <c r="C71" s="129"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="131"/>
-      <c r="F71" s="132"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="113"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="127"/>
-      <c r="B72" s="128"/>
-      <c r="C72" s="129"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="131"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="133"/>
-      <c r="H72" s="113"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="127"/>
-      <c r="B73" s="128"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="131"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="133"/>
-      <c r="H73" s="113"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="127"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="131"/>
-      <c r="F74" s="132"/>
-      <c r="G74" s="133"/>
-      <c r="H74" s="113"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="127"/>
-      <c r="B75" s="128"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="131"/>
-      <c r="F75" s="132"/>
-      <c r="G75" s="133"/>
-      <c r="H75" s="113"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="127"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="130"/>
-      <c r="E76" s="131"/>
-      <c r="F76" s="132"/>
-      <c r="G76" s="133"/>
-      <c r="H76" s="113"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="127"/>
-      <c r="B77" s="128"/>
-      <c r="C77" s="129"/>
-      <c r="D77" s="130"/>
-      <c r="E77" s="131"/>
-      <c r="F77" s="132"/>
-      <c r="G77" s="133"/>
-      <c r="H77" s="113"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="127"/>
-      <c r="B78" s="128"/>
-      <c r="C78" s="129"/>
-      <c r="D78" s="130"/>
-      <c r="E78" s="131"/>
-      <c r="F78" s="132"/>
-      <c r="G78" s="133"/>
-      <c r="H78" s="113"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="127"/>
-      <c r="B79" s="128"/>
-      <c r="C79" s="129"/>
-      <c r="D79" s="130"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="132"/>
-      <c r="G79" s="133"/>
-      <c r="H79" s="113"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="114"/>
-      <c r="B80" s="115"/>
-      <c r="C80" s="116"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="117"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="119"/>
-      <c r="H80" s="113"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="120"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="126"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="110"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="127"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="127"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="127"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="127"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="127"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="127"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="127"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="127"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="127"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="127"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="113"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E45:G45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #05  MAYO  2022/CREDITOS  4 CARNES   ZAVALETA   MAYO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -638,7 +638,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1341,6 +1347,10 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="22" fillId="13" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,12 +1390,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,6 +1411,7 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="3" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1416,12 +1421,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC0099"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF990033"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF9900"/>
     </mruColors>
@@ -2551,13 +2556,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2888,24 +2893,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="177"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -4051,12 +4056,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="167">
+      <c r="D55" s="171">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="168"/>
-      <c r="F55" s="169"/>
+      <c r="E55" s="172"/>
+      <c r="F55" s="173"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4070,11 +4075,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="170" t="s">
+      <c r="D57" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
+      <c r="E57" s="174"/>
+      <c r="F57" s="174"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4183,58 +4188,77 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="123"/>
-    <col min="3" max="3" width="14.85546875" style="148" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="124" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="152"/>
-    <col min="7" max="8" width="11.42578125" style="123"/>
-    <col min="9" max="9" width="13.85546875" style="123" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="123"/>
-    <col min="11" max="11" width="17.42578125" style="123" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="123"/>
+    <col min="3" max="3" width="11.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="123" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="123" customWidth="1"/>
+    <col min="6" max="9" width="11.42578125" style="123"/>
+    <col min="10" max="10" width="14.85546875" style="148" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="124" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="152"/>
+    <col min="14" max="15" width="11.42578125" style="123"/>
+    <col min="16" max="16" width="13.85546875" style="123" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="123"/>
+    <col min="18" max="18" width="17.42578125" style="123" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="177"/>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-    </row>
-    <row r="2" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="179" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="181"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+    </row>
+    <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="G2" s="153" t="s">
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="166" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="N2" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="154" t="s">
+      <c r="O2" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="155">
+      <c r="P2" s="155">
         <v>67001.67</v>
       </c>
-      <c r="J2" s="156">
+      <c r="Q2" s="156">
         <v>44706</v>
       </c>
-      <c r="K2" s="155">
+      <c r="R2" s="155">
         <v>67001.67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="141" t="s">
         <v>44</v>
       </c>
@@ -4247,910 +4271,1131 @@
       <c r="E3" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="I3" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="149" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="154" t="s">
+      <c r="O3" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="155">
+      <c r="P3" s="155">
         <v>5256</v>
       </c>
-      <c r="J3" s="156">
+      <c r="Q3" s="156">
         <v>44706</v>
       </c>
-      <c r="K3" s="155">
+      <c r="R3" s="155">
         <v>5256</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="139">
-        <v>44690</v>
+        <v>44704</v>
       </c>
       <c r="C4" s="145">
-        <v>44693</v>
+        <v>44707</v>
       </c>
       <c r="D4" s="140">
-        <v>67500</v>
+        <v>50868</v>
       </c>
       <c r="E4" s="140">
         <f>D4</f>
+        <v>50868</v>
+      </c>
+      <c r="I4" s="139">
+        <v>44690</v>
+      </c>
+      <c r="J4" s="145">
+        <v>44693</v>
+      </c>
+      <c r="K4" s="140">
         <v>67500</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="L4" s="140">
+        <f>K4</f>
+        <v>67500</v>
+      </c>
+      <c r="M4" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="N4" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="O4" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="155">
+      <c r="P4" s="155">
         <v>40472.6</v>
       </c>
-      <c r="J4" s="156">
+      <c r="Q4" s="156">
         <v>44706</v>
       </c>
-      <c r="K4" s="155">
+      <c r="R4" s="155">
         <v>40472.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89">
-        <v>44691</v>
+    <row r="5" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="139">
+        <v>44705</v>
       </c>
       <c r="C5" s="146">
-        <v>44693</v>
+        <v>44707</v>
       </c>
       <c r="D5" s="20">
-        <v>74689</v>
+        <v>48179</v>
       </c>
       <c r="E5" s="20">
         <f>E4+D5</f>
+        <v>99047</v>
+      </c>
+      <c r="I5" s="89">
+        <v>44691</v>
+      </c>
+      <c r="J5" s="146">
+        <v>44693</v>
+      </c>
+      <c r="K5" s="20">
+        <v>74689</v>
+      </c>
+      <c r="L5" s="20">
+        <f>L4+K5</f>
         <v>142189</v>
       </c>
-      <c r="G5" s="153" t="s">
+      <c r="N5" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="154" t="s">
+      <c r="O5" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="155">
+      <c r="P5" s="155">
         <v>3906</v>
       </c>
-      <c r="J5" s="156">
+      <c r="Q5" s="156">
         <v>44706</v>
       </c>
-      <c r="K5" s="155">
+      <c r="R5" s="155">
         <v>3906</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89">
-        <v>44692</v>
+    <row r="6" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="139">
+        <v>44706</v>
       </c>
       <c r="C6" s="146">
-        <v>44693</v>
+        <v>44707</v>
       </c>
       <c r="D6" s="20">
-        <v>64829</v>
+        <v>41272</v>
       </c>
       <c r="E6" s="20">
         <f>E5+D6</f>
+        <v>140319</v>
+      </c>
+      <c r="I6" s="89">
+        <v>44692</v>
+      </c>
+      <c r="J6" s="146">
+        <v>44693</v>
+      </c>
+      <c r="K6" s="20">
+        <v>64829</v>
+      </c>
+      <c r="L6" s="20">
+        <f>L5+K6</f>
         <v>207018</v>
       </c>
-      <c r="G6" s="153" t="s">
+      <c r="N6" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="154" t="s">
+      <c r="O6" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="155">
+      <c r="P6" s="155">
         <v>33820.800000000003</v>
       </c>
-      <c r="J6" s="156">
+      <c r="Q6" s="156">
         <v>44706</v>
       </c>
-      <c r="K6" s="155">
+      <c r="R6" s="155">
         <v>33820.800000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="89">
+    <row r="7" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="139">
+        <v>44707</v>
+      </c>
+      <c r="C7" s="146">
+        <v>44711</v>
+      </c>
+      <c r="D7" s="20">
+        <v>65213</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" ref="E7:E17" si="0">E6+D7</f>
+        <v>205532</v>
+      </c>
+      <c r="I7" s="89">
         <v>44693</v>
       </c>
-      <c r="C7" s="146">
+      <c r="J7" s="146">
         <v>44697</v>
       </c>
-      <c r="D7" s="20">
+      <c r="K7" s="20">
         <v>40075</v>
       </c>
-      <c r="E7" s="20">
-        <f t="shared" ref="E7:E18" si="0">E6+D7</f>
+      <c r="L7" s="20">
+        <f t="shared" ref="L7:L18" si="1">L6+K7</f>
         <v>247093</v>
       </c>
-      <c r="G7" s="153" t="s">
+      <c r="N7" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="154" t="s">
+      <c r="O7" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="155">
+      <c r="P7" s="155">
         <v>36277.25</v>
       </c>
-      <c r="J7" s="156">
+      <c r="Q7" s="156">
         <v>44706</v>
       </c>
-      <c r="K7" s="155">
+      <c r="R7" s="155">
         <v>36277.25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89">
+    <row r="8" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="139">
+        <v>44708</v>
+      </c>
+      <c r="C8" s="146">
+        <v>44711</v>
+      </c>
+      <c r="D8" s="20">
+        <v>48108</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>253640</v>
+      </c>
+      <c r="I8" s="89">
         <v>44694</v>
       </c>
-      <c r="C8" s="146">
+      <c r="J8" s="146">
         <v>44697</v>
       </c>
-      <c r="D8" s="20">
+      <c r="K8" s="20">
         <v>56051</v>
       </c>
-      <c r="E8" s="20">
-        <f t="shared" si="0"/>
+      <c r="L8" s="20">
+        <f t="shared" si="1"/>
         <v>303144</v>
       </c>
-      <c r="G8" s="153" t="s">
+      <c r="N8" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="154" t="s">
+      <c r="O8" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="155">
+      <c r="P8" s="155">
         <v>61531.34</v>
       </c>
-      <c r="J8" s="156">
+      <c r="Q8" s="156">
         <v>44706</v>
       </c>
-      <c r="K8" s="155">
+      <c r="R8" s="155">
         <v>61531.34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89">
+    <row r="9" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="139">
+        <v>44709</v>
+      </c>
+      <c r="C9" s="146">
+        <v>44711</v>
+      </c>
+      <c r="D9" s="20">
+        <v>72001</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>325641</v>
+      </c>
+      <c r="I9" s="89">
         <v>44695</v>
       </c>
-      <c r="C9" s="146">
+      <c r="J9" s="146">
         <v>44697</v>
       </c>
-      <c r="D9" s="20">
+      <c r="K9" s="20">
         <v>43450</v>
       </c>
-      <c r="E9" s="20">
-        <f t="shared" si="0"/>
+      <c r="L9" s="20">
+        <f t="shared" si="1"/>
         <v>346594</v>
       </c>
-      <c r="G9" s="153" t="s">
+      <c r="N9" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="154" t="s">
+      <c r="O9" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="155">
+      <c r="P9" s="155">
         <v>12189.9</v>
       </c>
-      <c r="J9" s="156">
+      <c r="Q9" s="156">
         <v>44706</v>
       </c>
-      <c r="K9" s="155">
+      <c r="R9" s="155">
         <v>12189.9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="89">
+    <row r="10" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="139">
+        <v>44710</v>
+      </c>
+      <c r="C10" s="146">
+        <v>44711</v>
+      </c>
+      <c r="D10" s="20">
+        <v>45288</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>370929</v>
+      </c>
+      <c r="I10" s="89">
         <v>44696</v>
       </c>
-      <c r="C10" s="146">
+      <c r="J10" s="146">
         <v>44697</v>
       </c>
-      <c r="D10" s="20">
+      <c r="K10" s="20">
         <v>52335</v>
       </c>
-      <c r="E10" s="20">
-        <f t="shared" si="0"/>
+      <c r="L10" s="20">
+        <f t="shared" si="1"/>
         <v>398929</v>
       </c>
-      <c r="G10" s="153" t="s">
+      <c r="N10" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="154" t="s">
+      <c r="O10" s="154" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="155">
+      <c r="P10" s="155">
         <v>64256.75</v>
       </c>
-      <c r="J10" s="156">
+      <c r="Q10" s="156">
         <v>44706</v>
       </c>
-      <c r="K10" s="155">
+      <c r="R10" s="155">
         <v>64256.75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89">
+    <row r="11" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="139">
+        <v>44711</v>
+      </c>
+      <c r="C11" s="146">
+        <v>44714</v>
+      </c>
+      <c r="D11" s="20">
+        <v>52084</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>423013</v>
+      </c>
+      <c r="I11" s="89">
         <v>44697</v>
       </c>
-      <c r="C11" s="146">
+      <c r="J11" s="146">
         <v>44701</v>
       </c>
-      <c r="D11" s="20">
+      <c r="K11" s="20">
         <v>69191</v>
       </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
+      <c r="L11" s="20">
+        <f t="shared" si="1"/>
         <v>468120</v>
       </c>
-      <c r="G11" s="153" t="s">
+      <c r="N11" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="154" t="s">
+      <c r="O11" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="155">
+      <c r="P11" s="155">
         <v>53375.8</v>
       </c>
-      <c r="J11" s="156">
+      <c r="Q11" s="156">
         <v>44706</v>
       </c>
-      <c r="K11" s="155">
+      <c r="R11" s="155">
         <v>53375.8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="89">
+    <row r="12" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="139">
+        <v>44712</v>
+      </c>
+      <c r="C12" s="146">
+        <v>44714</v>
+      </c>
+      <c r="D12" s="20">
+        <v>54287</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>477300</v>
+      </c>
+      <c r="I12" s="89">
         <v>44698</v>
       </c>
-      <c r="C12" s="146">
+      <c r="J12" s="146">
         <v>44701</v>
       </c>
-      <c r="D12" s="20">
+      <c r="K12" s="20">
         <v>50155</v>
       </c>
-      <c r="E12" s="20">
-        <f t="shared" si="0"/>
+      <c r="L12" s="20">
+        <f t="shared" si="1"/>
         <v>518275</v>
       </c>
-      <c r="G12" s="153" t="s">
+      <c r="N12" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="154" t="s">
+      <c r="O12" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="155">
+      <c r="P12" s="155">
         <v>126366.49</v>
       </c>
-      <c r="J12" s="156">
+      <c r="Q12" s="156">
         <v>44706</v>
       </c>
-      <c r="K12" s="155">
+      <c r="R12" s="155">
         <v>126366.49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89">
+    <row r="13" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="139">
+        <v>44713</v>
+      </c>
+      <c r="C13" s="146">
+        <v>44714</v>
+      </c>
+      <c r="D13" s="22">
+        <v>50064</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>527364</v>
+      </c>
+      <c r="I13" s="89">
         <v>44699</v>
       </c>
-      <c r="C13" s="146">
+      <c r="J13" s="146">
         <v>44701</v>
       </c>
-      <c r="D13" s="22">
+      <c r="K13" s="22">
         <v>55227</v>
       </c>
-      <c r="E13" s="20">
-        <f t="shared" si="0"/>
+      <c r="L13" s="20">
+        <f t="shared" si="1"/>
         <v>573502</v>
       </c>
-      <c r="G13" s="153" t="s">
+      <c r="N13" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="154" t="s">
+      <c r="O13" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="155">
+      <c r="P13" s="155">
         <v>6102</v>
       </c>
-      <c r="J13" s="156">
+      <c r="Q13" s="156">
         <v>44706</v>
       </c>
-      <c r="K13" s="155">
+      <c r="R13" s="155">
         <v>6102</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="89">
+    <row r="14" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="139">
+        <v>44714</v>
+      </c>
+      <c r="C14" s="146">
+        <v>44718</v>
+      </c>
+      <c r="D14" s="20">
+        <v>61007.5</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>588371.5</v>
+      </c>
+      <c r="I14" s="89">
         <v>44700</v>
       </c>
-      <c r="C14" s="146">
+      <c r="J14" s="146">
         <v>44701</v>
       </c>
-      <c r="D14" s="20">
+      <c r="K14" s="20">
         <v>47102</v>
       </c>
-      <c r="E14" s="20">
-        <f t="shared" si="0"/>
+      <c r="L14" s="20">
+        <f t="shared" si="1"/>
         <v>620604</v>
       </c>
-      <c r="G14" s="153" t="s">
+      <c r="N14" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="154" t="s">
+      <c r="O14" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="155">
+      <c r="P14" s="155">
         <v>4812</v>
       </c>
-      <c r="J14" s="156">
+      <c r="Q14" s="156">
         <v>44706</v>
       </c>
-      <c r="K14" s="155">
+      <c r="R14" s="155">
         <v>4812</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="89">
+    <row r="15" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="139">
+        <v>44715</v>
+      </c>
+      <c r="C15" s="146">
+        <v>44718</v>
+      </c>
+      <c r="D15" s="20">
+        <v>76511</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>664882.5</v>
+      </c>
+      <c r="I15" s="89">
         <v>44701</v>
       </c>
-      <c r="C15" s="146">
+      <c r="J15" s="146">
         <v>44704</v>
       </c>
-      <c r="D15" s="20">
+      <c r="K15" s="20">
         <v>93134</v>
       </c>
-      <c r="E15" s="20">
-        <f t="shared" si="0"/>
+      <c r="L15" s="20">
+        <f t="shared" si="1"/>
         <v>713738</v>
       </c>
-      <c r="G15" s="153" t="s">
+      <c r="N15" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="154" t="s">
+      <c r="O15" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="155">
+      <c r="P15" s="155">
         <v>10160.6</v>
       </c>
-      <c r="J15" s="156">
+      <c r="Q15" s="156">
         <v>44706</v>
       </c>
-      <c r="K15" s="155">
+      <c r="R15" s="155">
         <v>10160.6</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="89">
+    <row r="16" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="139">
+        <v>44716</v>
+      </c>
+      <c r="C16" s="146">
+        <v>44718</v>
+      </c>
+      <c r="D16" s="20">
+        <v>43736</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>708618.5</v>
+      </c>
+      <c r="I16" s="89">
         <v>44702</v>
       </c>
-      <c r="C16" s="146">
+      <c r="J16" s="146">
         <v>44704</v>
       </c>
-      <c r="D16" s="20">
+      <c r="K16" s="20">
         <v>22308</v>
       </c>
-      <c r="E16" s="20">
-        <f t="shared" si="0"/>
+      <c r="L16" s="20">
+        <f t="shared" si="1"/>
         <v>736046</v>
       </c>
-      <c r="G16" s="153" t="s">
+      <c r="N16" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="154" t="s">
+      <c r="O16" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="155">
+      <c r="P16" s="155">
         <v>75337.5</v>
       </c>
-      <c r="J16" s="156">
+      <c r="Q16" s="156">
         <v>44706</v>
       </c>
-      <c r="K16" s="155">
+      <c r="R16" s="155">
         <v>75337.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89">
+    <row r="17" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="139">
+        <v>44717</v>
+      </c>
+      <c r="C17" s="146">
+        <v>44718</v>
+      </c>
+      <c r="D17" s="20">
+        <v>40903</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>749521.5</v>
+      </c>
+      <c r="I17" s="89">
         <v>44703</v>
       </c>
-      <c r="C17" s="146">
+      <c r="J17" s="146">
         <v>44704</v>
       </c>
-      <c r="D17" s="20">
+      <c r="K17" s="20">
         <v>23536</v>
       </c>
-      <c r="E17" s="20">
-        <f t="shared" si="0"/>
+      <c r="L17" s="20">
+        <f t="shared" si="1"/>
         <v>759582</v>
       </c>
-      <c r="G17" s="153" t="s">
+      <c r="N17" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="154" t="s">
+      <c r="O17" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="155">
+      <c r="P17" s="155">
         <v>29920.44</v>
       </c>
-      <c r="J17" s="156">
+      <c r="Q17" s="156">
         <v>44706</v>
       </c>
-      <c r="K17" s="155">
+      <c r="R17" s="155">
         <v>29920.44</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="89"/>
+    <row r="18" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="139">
+        <v>44718</v>
+      </c>
       <c r="C18" s="146"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="165">
-        <f t="shared" si="0"/>
+      <c r="E18" s="20">
+        <f t="shared" ref="E18:E22" si="2">E17+D18</f>
+        <v>749521.5</v>
+      </c>
+      <c r="I18" s="89"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="165">
+        <f t="shared" si="1"/>
         <v>759582</v>
       </c>
-      <c r="G18" s="153" t="s">
+      <c r="N18" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="154" t="s">
+      <c r="O18" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="155">
+      <c r="P18" s="155">
         <v>72246.7</v>
       </c>
-      <c r="J18" s="156">
+      <c r="Q18" s="156">
         <v>44706</v>
       </c>
-      <c r="K18" s="155">
+      <c r="R18" s="155">
         <v>72246.7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="G19" s="153" t="s">
+    <row r="19" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="139">
+        <v>44719</v>
+      </c>
+      <c r="C19" s="146"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
+        <f t="shared" si="2"/>
+        <v>749521.5</v>
+      </c>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="N19" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="154" t="s">
+      <c r="O19" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="155">
+      <c r="P19" s="155">
         <v>3036</v>
       </c>
-      <c r="J19" s="156">
+      <c r="Q19" s="156">
         <v>44706</v>
       </c>
-      <c r="K19" s="155">
+      <c r="R19" s="155">
         <v>3036</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="130"/>
-      <c r="B20" s="162" t="s">
+      <c r="B20" s="139">
+        <v>44720</v>
+      </c>
+      <c r="C20" s="146"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <f t="shared" si="2"/>
+        <v>749521.5</v>
+      </c>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="G20" s="153" t="s">
+      <c r="J20" s="163"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="N20" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="154" t="s">
+      <c r="O20" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="155">
+      <c r="P20" s="155">
         <v>1627.2</v>
       </c>
-      <c r="J20" s="156">
+      <c r="Q20" s="156">
         <v>44706</v>
       </c>
-      <c r="K20" s="155">
+      <c r="R20" s="155">
         <v>1627.2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="130"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="G21" s="153" t="s">
+      <c r="B21" s="139">
+        <v>44721</v>
+      </c>
+      <c r="C21" s="146"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
+        <f t="shared" si="2"/>
+        <v>749521.5</v>
+      </c>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="N21" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="154" t="s">
+      <c r="O21" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="155">
+      <c r="P21" s="155">
         <v>1238.8</v>
       </c>
-      <c r="J21" s="156">
+      <c r="Q21" s="156">
         <v>44706</v>
       </c>
-      <c r="K21" s="155">
+      <c r="R21" s="155">
         <v>1238.8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="130"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="G22" s="153" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="190">
+        <f t="shared" si="2"/>
+        <v>749521.5</v>
+      </c>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="N22" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="154" t="s">
+      <c r="O22" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="I22" s="155">
+      <c r="P22" s="155">
         <v>62762.55</v>
       </c>
-      <c r="J22" s="156">
+      <c r="Q22" s="156">
         <v>44706</v>
       </c>
-      <c r="K22" s="157">
+      <c r="R22" s="157">
         <v>50646.16</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="130"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="K23" s="158">
-        <f>SUM(K2:K22)</f>
+      <c r="B23" s="139"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="R23" s="158">
+        <f>SUM(R2:R22)</f>
         <v>759581.99999999988</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="130"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="139"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="130"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-    </row>
-    <row r="26" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="179" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-    </row>
-    <row r="27" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="141" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="144" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="149" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="143" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="139">
-        <v>44704</v>
-      </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140">
-        <f>D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="139">
-        <v>44705</v>
-      </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20">
-        <f>E28+D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="139">
-        <v>44706</v>
-      </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20">
-        <f>E29+D30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="139">
-        <v>44707</v>
-      </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20">
-        <f t="shared" ref="E31:E42" si="1">E30+D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="139">
-        <v>44708</v>
-      </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="139">
-        <v>44709</v>
-      </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="139">
-        <v>44710</v>
-      </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="139">
-        <v>44711</v>
-      </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="139">
-        <v>44712</v>
-      </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="139">
-        <v>44713</v>
-      </c>
-      <c r="C37" s="146"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="139">
-        <v>44714</v>
-      </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="139">
-        <v>44715</v>
-      </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="139">
-        <v>44716</v>
-      </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="139">
-        <v>44717</v>
-      </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="139">
-        <v>44718</v>
-      </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="165">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="139"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22">
+        <v>850487.81</v>
+      </c>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+    </row>
+    <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="167"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+    </row>
+    <row r="28" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="130"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="130"/>
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="130"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="130"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="130"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="147"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="60"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="130"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="60"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="130"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="130"/>
-      <c r="B47" s="110"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="130"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="130"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="130"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="130"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="130"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="130"/>
-      <c r="B52" s="110"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="130"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="130"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="147"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="60"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="130"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="147"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="60"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="130"/>
-      <c r="B54" s="110"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="130"/>
-      <c r="B55" s="110"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="130"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="147"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="130"/>
-      <c r="B56" s="110"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="130"/>
-      <c r="B57" s="110"/>
-      <c r="C57" s="147"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="147"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="130"/>
-      <c r="B58" s="110"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="130"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="147"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="130"/>
-      <c r="B59" s="110"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="131"/>
-      <c r="E60" s="60"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D61" s="131"/>
-      <c r="E61" s="138"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D62" s="131"/>
-      <c r="E62" s="130"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="147"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K60" s="131"/>
+      <c r="L60" s="60"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K61" s="131"/>
+      <c r="L61" s="138"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K62" s="131"/>
+      <c r="L62" s="130"/>
     </row>
   </sheetData>
-  <sortState ref="B3:G63">
-    <sortCondition ref="D3:D63"/>
+  <sortState ref="I3:N63">
+    <sortCondition ref="K3:K63"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A26:E26"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5182,27 +5427,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -5397,11 +5642,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="184">
+      <c r="G11" s="186">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="185"/>
+      <c r="H11" s="187"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -6776,11 +7021,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="186">
+      <c r="G81" s="188">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="187"/>
+      <c r="H81" s="189"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -6868,12 +7113,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="167">
+      <c r="E88" s="171">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="168"/>
-      <c r="G88" s="169"/>
+      <c r="F88" s="172"/>
+      <c r="G88" s="173"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -6890,11 +7135,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="170" t="s">
+      <c r="E90" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="170"/>
-      <c r="G90" s="170"/>
+      <c r="F90" s="174"/>
+      <c r="G90" s="174"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -7039,25 +7284,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="177"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -7949,12 +8194,12 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="167">
+      <c r="E52" s="171">
         <f>E48-G48</f>
         <v>734621</v>
       </c>
-      <c r="F52" s="168"/>
-      <c r="G52" s="169"/>
+      <c r="F52" s="172"/>
+      <c r="G52" s="173"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -7970,11 +8215,11 @@
       <c r="B54" s="37"/>
       <c r="C54" s="38"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="170" t="s">
+      <c r="E54" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
+      <c r="F54" s="174"/>
+      <c r="G54" s="174"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -8130,25 +8375,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="177"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9878,12 +10123,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="167">
+      <c r="E76" s="171">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="168"/>
-      <c r="G76" s="169"/>
+      <c r="F76" s="172"/>
+      <c r="G76" s="173"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9899,11 +10144,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="170" t="s">
+      <c r="E78" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
+      <c r="F78" s="174"/>
+      <c r="G78" s="174"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -10044,25 +10289,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="177"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -10911,12 +11156,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="167">
+      <c r="E41" s="171">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="168"/>
-      <c r="G41" s="169"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="173"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10932,11 +11177,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="170" t="s">
+      <c r="E43" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
+      <c r="F43" s="174"/>
+      <c r="G43" s="174"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -11080,25 +11325,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="180"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12438,12 +12683,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="167">
+      <c r="E60" s="171">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="168"/>
-      <c r="G60" s="169"/>
+      <c r="F60" s="172"/>
+      <c r="G60" s="173"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -12459,11 +12704,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="170" t="s">
+      <c r="E62" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="170"/>
-      <c r="G62" s="170"/>
+      <c r="F62" s="174"/>
+      <c r="G62" s="174"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -12604,25 +12849,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="180"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -14023,12 +14268,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="167">
+      <c r="E61" s="171">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="168"/>
-      <c r="G61" s="169"/>
+      <c r="F61" s="172"/>
+      <c r="G61" s="173"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -14044,11 +14289,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="170" t="s">
+      <c r="E63" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="170"/>
-      <c r="G63" s="170"/>
+      <c r="F63" s="174"/>
+      <c r="G63" s="174"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -14189,25 +14434,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="180"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15657,12 +15902,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="167">
+      <c r="E64" s="171">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="168"/>
-      <c r="G64" s="169"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="173"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -15678,11 +15923,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="170" t="s">
+      <c r="E66" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="170"/>
-      <c r="G66" s="170"/>
+      <c r="F66" s="174"/>
+      <c r="G66" s="174"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -15823,25 +16068,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="180"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17242,12 +17487,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="167">
+      <c r="E65" s="171">
         <f>E61-G61</f>
         <v>210191</v>
       </c>
-      <c r="F65" s="168"/>
-      <c r="G65" s="169"/>
+      <c r="F65" s="172"/>
+      <c r="G65" s="173"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -17263,11 +17508,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="170" t="s">
+      <c r="E67" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
+      <c r="F67" s="174"/>
+      <c r="G67" s="174"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -17431,7 +17676,7 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -17449,25 +17694,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="176"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="180"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18338,12 +18583,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="167">
+      <c r="E43" s="171">
         <f>E39-G39</f>
         <v>374951</v>
       </c>
-      <c r="F43" s="168"/>
-      <c r="G43" s="169"/>
+      <c r="F43" s="172"/>
+      <c r="G43" s="173"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -18359,11 +18604,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="170" t="s">
+      <c r="E45" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
